--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
   <si>
     <t>Team Singh</t>
   </si>
@@ -50,16 +51,19 @@
     <t>Team Gupta</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -117,6 +121,45 @@
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -523,16 +566,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -541,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -552,34 +595,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -587,34 +630,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -625,19 +668,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -649,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -657,34 +700,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -692,34 +735,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -727,34 +770,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -762,19 +805,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -783,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -800,28 +843,28 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -832,13 +875,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -847,19 +890,19 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -877,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -894,10 +937,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -905,10 +948,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -919,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -936,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -950,10 +993,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,13 +1004,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -975,13 +1018,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -992,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1017,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1041,16 +1084,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1061,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D2">
         <v>0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1075,16 +1118,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="D3">
-        <v>0.1000000000000001</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1092,13 +1135,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D4">
-        <v>-0.1000000000000001</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1109,16 +1152,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D5">
-        <v>-1.3</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1126,13 +1169,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>-0.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1143,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1160,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1180,13 +1223,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1197,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1214,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1238,268 +1281,268 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>49.86</v>
+        <v>36.72000000000001</v>
       </c>
       <c r="C2">
-        <v>24.19</v>
+        <v>26.03</v>
       </c>
       <c r="D2">
-        <v>13.28</v>
+        <v>17.74</v>
       </c>
       <c r="E2">
-        <v>7.23</v>
+        <v>10.3</v>
       </c>
       <c r="F2">
-        <v>3.32</v>
+        <v>5.47</v>
       </c>
       <c r="G2">
-        <v>1.65</v>
+        <v>2.41</v>
       </c>
       <c r="H2">
-        <v>0.35</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.53</v>
+        <v>98.67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>13.88</v>
+        <v>25.93</v>
       </c>
       <c r="C3">
-        <v>17.56</v>
+        <v>22.97</v>
       </c>
       <c r="D3">
-        <v>18.46</v>
+        <v>18.41</v>
       </c>
       <c r="E3">
-        <v>16.93</v>
+        <v>14.04</v>
       </c>
       <c r="F3">
-        <v>14.6</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G3">
-        <v>10.19</v>
+        <v>5.24</v>
       </c>
       <c r="H3">
-        <v>5.48</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>2.47</v>
+        <v>1.22</v>
       </c>
       <c r="J3">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
-        <v>91.62</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>13.36</v>
+        <v>19.13</v>
       </c>
       <c r="C4">
-        <v>17.56</v>
+        <v>19.93</v>
       </c>
       <c r="D4">
-        <v>18.11</v>
+        <v>17.77</v>
       </c>
       <c r="E4">
-        <v>17.3</v>
+        <v>15.33</v>
       </c>
       <c r="F4">
-        <v>13.94</v>
+        <v>12.21</v>
       </c>
       <c r="G4">
-        <v>10.06</v>
+        <v>7.57</v>
       </c>
       <c r="H4">
-        <v>6.31</v>
+        <v>4.52</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>2.46</v>
       </c>
       <c r="J4">
-        <v>0.5499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0.28</v>
       </c>
       <c r="L4">
-        <v>90.33</v>
+        <v>91.94</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11.64</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="C5">
-        <v>17.16</v>
+        <v>11.89</v>
       </c>
       <c r="D5">
-        <v>17.29</v>
+        <v>14.77</v>
       </c>
       <c r="E5">
-        <v>16.34</v>
+        <v>16.76</v>
       </c>
       <c r="F5">
-        <v>14.19</v>
+        <v>15.43</v>
       </c>
       <c r="G5">
-        <v>11.56</v>
+        <v>12.94</v>
       </c>
       <c r="H5">
-        <v>7.46</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="I5">
-        <v>3.58</v>
+        <v>6.48</v>
       </c>
       <c r="J5">
-        <v>0.73</v>
+        <v>3.19</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
+        <v>1.08</v>
       </c>
       <c r="L5">
-        <v>88.18000000000001</v>
+        <v>79.62</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>6.59</v>
+        <v>7.19</v>
       </c>
       <c r="C6">
-        <v>12.59</v>
+        <v>10.79</v>
       </c>
       <c r="D6">
-        <v>14.57</v>
+        <v>14.3</v>
       </c>
       <c r="E6">
-        <v>15.3</v>
+        <v>15.46</v>
       </c>
       <c r="F6">
-        <v>16.22</v>
+        <v>15.56</v>
       </c>
       <c r="G6">
-        <v>14.77</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>11.25</v>
+        <v>10.81</v>
       </c>
       <c r="I6">
-        <v>6.510000000000001</v>
+        <v>7.46</v>
       </c>
       <c r="J6">
-        <v>1.98</v>
+        <v>3.24</v>
       </c>
       <c r="K6">
-        <v>0.22</v>
+        <v>1.19</v>
       </c>
       <c r="L6">
-        <v>80.03999999999999</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3.48</v>
+        <v>1.21</v>
       </c>
       <c r="C7">
-        <v>7.48</v>
+        <v>2.97</v>
       </c>
       <c r="D7">
-        <v>10.73</v>
+        <v>5.81</v>
       </c>
       <c r="E7">
-        <v>13.68</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F7">
-        <v>15.96</v>
+        <v>12.12</v>
       </c>
       <c r="G7">
-        <v>17.79</v>
+        <v>15.15</v>
       </c>
       <c r="H7">
-        <v>15.21</v>
+        <v>17.1</v>
       </c>
       <c r="I7">
-        <v>10.92</v>
+        <v>16.5</v>
       </c>
       <c r="J7">
-        <v>4.12</v>
+        <v>12.14</v>
       </c>
       <c r="K7">
-        <v>0.63</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="L7">
-        <v>69.12</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1507,75 +1550,75 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="C8">
-        <v>2.21</v>
+        <v>2.57</v>
       </c>
       <c r="D8">
-        <v>4.87</v>
+        <v>5.17</v>
       </c>
       <c r="E8">
-        <v>7.720000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="F8">
-        <v>11.71</v>
+        <v>11.75</v>
       </c>
       <c r="G8">
-        <v>16.33</v>
+        <v>14.8</v>
       </c>
       <c r="H8">
-        <v>21.25</v>
+        <v>17.32</v>
       </c>
       <c r="I8">
-        <v>21.19</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>11.01</v>
+        <v>13.34</v>
       </c>
       <c r="K8">
-        <v>2.87</v>
+        <v>8.25</v>
       </c>
       <c r="L8">
-        <v>43.68</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.35</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>2.69</v>
       </c>
       <c r="D9">
-        <v>2.58</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="E9">
-        <v>4.96</v>
+        <v>9.16</v>
       </c>
       <c r="F9">
-        <v>8.649999999999999</v>
+        <v>13.41</v>
       </c>
       <c r="G9">
-        <v>14.16</v>
+        <v>17.34</v>
       </c>
       <c r="H9">
-        <v>21.43</v>
+        <v>17.31</v>
       </c>
       <c r="I9">
-        <v>25.1</v>
+        <v>14.99</v>
       </c>
       <c r="J9">
-        <v>16.2</v>
+        <v>11.25</v>
       </c>
       <c r="K9">
-        <v>5.37</v>
+        <v>7.53</v>
       </c>
       <c r="L9">
-        <v>31.9</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1583,37 +1626,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D10">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="E10">
-        <v>0.54</v>
+        <v>1.01</v>
       </c>
       <c r="F10">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="G10">
-        <v>3.21</v>
+        <v>5.28</v>
       </c>
       <c r="H10">
-        <v>9.779999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="I10">
-        <v>20.55</v>
+        <v>14.93</v>
       </c>
       <c r="J10">
-        <v>37.76</v>
+        <v>25.27</v>
       </c>
       <c r="K10">
-        <v>26.65</v>
+        <v>41.08</v>
       </c>
       <c r="L10">
-        <v>5.26</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1621,37 +1664,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F11">
-        <v>0.06</v>
+        <v>2.48</v>
       </c>
       <c r="G11">
-        <v>0.28</v>
+        <v>5.27</v>
       </c>
       <c r="H11">
-        <v>1.48</v>
+        <v>10.02</v>
       </c>
       <c r="I11">
-        <v>6.81</v>
+        <v>17.67</v>
       </c>
       <c r="J11">
-        <v>27.23</v>
+        <v>30.43</v>
       </c>
       <c r="K11">
-        <v>64.14</v>
+        <v>32.76</v>
       </c>
       <c r="L11">
-        <v>0.34</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1669,16 +1712,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1689,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1703,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1720,16 +1763,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1740,13 +1783,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1754,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1771,16 +1814,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1788,16 +1831,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1805,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1822,16 +1865,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1842,13 +1885,243 @@
         <v>2</v>
       </c>
       <c r="C11">
+        <v>-17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-11</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-8</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>-17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
   <si>
     <t>Team Singh</t>
   </si>
@@ -1322,37 +1322,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.72000000000001</v>
+        <v>36.36</v>
       </c>
       <c r="C2">
-        <v>26.03</v>
+        <v>26.13</v>
       </c>
       <c r="D2">
-        <v>17.74</v>
+        <v>17.2</v>
       </c>
       <c r="E2">
-        <v>10.3</v>
+        <v>10.76</v>
       </c>
       <c r="F2">
-        <v>5.47</v>
+        <v>5.44</v>
       </c>
       <c r="G2">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="H2">
-        <v>0.9299999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="I2">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="K2">
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>98.67</v>
+        <v>98.44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1360,37 +1360,37 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>25.93</v>
+        <v>26.25</v>
       </c>
       <c r="C3">
-        <v>22.97</v>
+        <v>22.79</v>
       </c>
       <c r="D3">
-        <v>18.41</v>
+        <v>18.93</v>
       </c>
       <c r="E3">
-        <v>14.04</v>
+        <v>13.43</v>
       </c>
       <c r="F3">
-        <v>9.210000000000001</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="G3">
-        <v>5.24</v>
+        <v>5.57</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>2.49</v>
       </c>
       <c r="I3">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="J3">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L3">
-        <v>95.8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1398,113 +1398,113 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>19.13</v>
+        <v>19.25</v>
       </c>
       <c r="C4">
-        <v>19.93</v>
+        <v>19.9</v>
       </c>
       <c r="D4">
-        <v>17.77</v>
+        <v>17.96</v>
       </c>
       <c r="E4">
-        <v>15.33</v>
+        <v>14.97</v>
       </c>
       <c r="F4">
-        <v>12.21</v>
+        <v>11.88</v>
       </c>
       <c r="G4">
-        <v>7.57</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="H4">
-        <v>4.52</v>
+        <v>4.99</v>
       </c>
       <c r="I4">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="K4">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="L4">
-        <v>91.94</v>
+        <v>91.59</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>7.829999999999999</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="C5">
-        <v>11.89</v>
+        <v>11.16</v>
       </c>
       <c r="D5">
-        <v>14.77</v>
+        <v>13.85</v>
       </c>
       <c r="E5">
-        <v>16.76</v>
+        <v>15.62</v>
       </c>
       <c r="F5">
-        <v>15.43</v>
+        <v>15.89</v>
       </c>
       <c r="G5">
-        <v>12.94</v>
+        <v>13.93</v>
       </c>
       <c r="H5">
-        <v>9.629999999999999</v>
+        <v>10.94</v>
       </c>
       <c r="I5">
-        <v>6.48</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="J5">
-        <v>3.19</v>
+        <v>3.29</v>
       </c>
       <c r="K5">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="L5">
-        <v>79.62</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>7.19</v>
+        <v>7.41</v>
       </c>
       <c r="C6">
-        <v>10.79</v>
+        <v>11.82</v>
       </c>
       <c r="D6">
-        <v>14.3</v>
+        <v>14.79</v>
       </c>
       <c r="E6">
-        <v>15.46</v>
+        <v>17.04</v>
       </c>
       <c r="F6">
-        <v>15.56</v>
+        <v>15.49</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>13.19</v>
       </c>
       <c r="H6">
-        <v>10.81</v>
+        <v>9.81</v>
       </c>
       <c r="I6">
-        <v>7.46</v>
+        <v>6.2</v>
       </c>
       <c r="J6">
-        <v>3.24</v>
+        <v>3.02</v>
       </c>
       <c r="K6">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="L6">
-        <v>77.3</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1512,113 +1512,113 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="C7">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>5.81</v>
+        <v>5.92</v>
       </c>
       <c r="E7">
-        <v>9.220000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F7">
-        <v>12.12</v>
+        <v>12.72</v>
       </c>
       <c r="G7">
-        <v>15.15</v>
+        <v>15.34</v>
       </c>
       <c r="H7">
-        <v>17.1</v>
+        <v>16.99</v>
       </c>
       <c r="I7">
-        <v>16.5</v>
+        <v>16.98</v>
       </c>
       <c r="J7">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="K7">
-        <v>7.779999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="L7">
-        <v>46.48</v>
+        <v>46.97000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C8">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="D8">
-        <v>5.17</v>
+        <v>5.83</v>
       </c>
       <c r="E8">
-        <v>7.82</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F8">
-        <v>11.75</v>
+        <v>12.84</v>
       </c>
       <c r="G8">
-        <v>14.8</v>
+        <v>16.18</v>
       </c>
       <c r="H8">
-        <v>17.32</v>
+        <v>17.44</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>15.05</v>
       </c>
       <c r="J8">
-        <v>13.34</v>
+        <v>12.03</v>
       </c>
       <c r="K8">
-        <v>8.25</v>
+        <v>7.85</v>
       </c>
       <c r="L8">
-        <v>43.09</v>
+        <v>47.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C9">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>5.390000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="E9">
-        <v>9.16</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F9">
-        <v>13.41</v>
+        <v>11.63</v>
       </c>
       <c r="G9">
-        <v>17.34</v>
+        <v>15.41</v>
       </c>
       <c r="H9">
-        <v>17.31</v>
+        <v>17.04</v>
       </c>
       <c r="I9">
-        <v>14.99</v>
+        <v>17.78</v>
       </c>
       <c r="J9">
-        <v>11.25</v>
+        <v>12.92</v>
       </c>
       <c r="K9">
-        <v>7.53</v>
+        <v>8.75</v>
       </c>
       <c r="L9">
-        <v>48.92</v>
+        <v>43.51</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1626,37 +1626,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="E10">
-        <v>1.01</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F10">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="G10">
-        <v>5.28</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="H10">
-        <v>9.66</v>
+        <v>9.34</v>
       </c>
       <c r="I10">
-        <v>14.93</v>
+        <v>15.62</v>
       </c>
       <c r="J10">
-        <v>25.27</v>
+        <v>24.76</v>
       </c>
       <c r="K10">
-        <v>41.08</v>
+        <v>40.93</v>
       </c>
       <c r="L10">
-        <v>9.06</v>
+        <v>9.350000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1664,37 +1664,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.08</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D11">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.8999999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F11">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="G11">
-        <v>5.27</v>
+        <v>5.06</v>
       </c>
       <c r="H11">
-        <v>10.02</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="I11">
         <v>17.67</v>
       </c>
       <c r="J11">
-        <v>30.43</v>
+        <v>30.75</v>
       </c>
       <c r="K11">
-        <v>32.76</v>
+        <v>32.84</v>
       </c>
       <c r="L11">
-        <v>9.119999999999999</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1901,226 +1901,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
       </c>
       <c r="E7">
         <v>-2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>-6</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>-8</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-7</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-13</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="47">
   <si>
     <t>Team Singh</t>
   </si>
@@ -51,19 +51,22 @@
     <t>Team Gupta</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -123,33 +126,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -566,13 +566,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -598,31 +598,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -633,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -651,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -692,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -703,31 +703,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -741,13 +741,13 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -805,34 +805,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -864,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -881,13 +881,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -896,13 +896,13 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -920,13 +920,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -934,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -948,13 +948,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -962,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -976,10 +976,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1004,10 +1004,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1018,13 +1018,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1084,16 +1084,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1104,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D2">
-        <v>0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1121,13 +1121,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="D3">
-        <v>-0.7000000000000002</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D4">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999998</v>
+        <v>-1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1186,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="D7">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1203,16 +1203,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D8">
-        <v>-1.3</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1223,13 +1223,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1240,13 +1240,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1263,7 +1263,7 @@
         <v>1.1</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1281,40 +1281,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1322,303 +1322,303 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.36</v>
+        <v>59.84</v>
       </c>
       <c r="C2">
-        <v>26.13</v>
+        <v>22.21</v>
       </c>
       <c r="D2">
-        <v>17.2</v>
+        <v>10.37</v>
       </c>
       <c r="E2">
-        <v>10.76</v>
+        <v>4.48</v>
       </c>
       <c r="F2">
-        <v>5.44</v>
+        <v>1.99</v>
       </c>
       <c r="G2">
-        <v>2.55</v>
+        <v>0.83</v>
       </c>
       <c r="H2">
-        <v>1.09</v>
+        <v>0.21</v>
       </c>
       <c r="I2">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>98.44</v>
+        <v>99.72000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>26.25</v>
+        <v>12.82</v>
       </c>
       <c r="C3">
-        <v>22.79</v>
+        <v>19.69</v>
       </c>
       <c r="D3">
-        <v>18.93</v>
+        <v>19.72</v>
       </c>
       <c r="E3">
-        <v>13.43</v>
+        <v>17.78</v>
       </c>
       <c r="F3">
-        <v>9.030000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="G3">
-        <v>5.57</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H3">
-        <v>2.49</v>
+        <v>5.25</v>
       </c>
       <c r="I3">
-        <v>1.05</v>
+        <v>2.62</v>
       </c>
       <c r="J3">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="K3">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="L3">
-        <v>96</v>
+        <v>91.27999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>19.25</v>
+        <v>10.25</v>
       </c>
       <c r="C4">
-        <v>19.9</v>
+        <v>19.06</v>
       </c>
       <c r="D4">
-        <v>17.96</v>
+        <v>17.92</v>
       </c>
       <c r="E4">
-        <v>14.97</v>
+        <v>16.23</v>
       </c>
       <c r="F4">
-        <v>11.88</v>
+        <v>13.51</v>
       </c>
       <c r="G4">
-        <v>7.630000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H4">
-        <v>4.99</v>
+        <v>6.75</v>
       </c>
       <c r="I4">
-        <v>2.37</v>
+        <v>4.03</v>
       </c>
       <c r="J4">
-        <v>0.8200000000000001</v>
+        <v>1.48</v>
       </c>
       <c r="K4">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="L4">
-        <v>91.59</v>
+        <v>87.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>7.449999999999999</v>
+        <v>10.09</v>
       </c>
       <c r="C5">
-        <v>11.16</v>
+        <v>17.25</v>
       </c>
       <c r="D5">
-        <v>13.85</v>
+        <v>18.68</v>
       </c>
       <c r="E5">
-        <v>15.62</v>
+        <v>17.28</v>
       </c>
       <c r="F5">
-        <v>15.89</v>
+        <v>14.47</v>
       </c>
       <c r="G5">
-        <v>13.93</v>
+        <v>10.24</v>
       </c>
       <c r="H5">
-        <v>10.94</v>
+        <v>6.76</v>
       </c>
       <c r="I5">
-        <v>6.890000000000001</v>
+        <v>3.65</v>
       </c>
       <c r="J5">
-        <v>3.29</v>
+        <v>1.33</v>
       </c>
       <c r="K5">
-        <v>0.98</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
-        <v>77.90000000000001</v>
+        <v>88.00999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>7.41</v>
+        <v>3.44</v>
       </c>
       <c r="C6">
-        <v>11.82</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D6">
-        <v>14.79</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
-        <v>17.04</v>
+        <v>14.45</v>
       </c>
       <c r="F6">
-        <v>15.49</v>
+        <v>15.8</v>
       </c>
       <c r="G6">
-        <v>13.19</v>
+        <v>15.38</v>
       </c>
       <c r="H6">
-        <v>9.81</v>
+        <v>13.78</v>
       </c>
       <c r="I6">
-        <v>6.2</v>
+        <v>9.75</v>
       </c>
       <c r="J6">
-        <v>3.02</v>
+        <v>4.46</v>
       </c>
       <c r="K6">
-        <v>1.23</v>
+        <v>1.77</v>
       </c>
       <c r="L6">
-        <v>79.73999999999999</v>
+        <v>70.23999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1.28</v>
+        <v>2.63</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="D7">
-        <v>5.92</v>
+        <v>11.79</v>
       </c>
       <c r="E7">
-        <v>8.609999999999999</v>
+        <v>13.92</v>
       </c>
       <c r="F7">
-        <v>12.72</v>
+        <v>16.09</v>
       </c>
       <c r="G7">
-        <v>15.34</v>
+        <v>15.48</v>
       </c>
       <c r="H7">
-        <v>16.99</v>
+        <v>14.08</v>
       </c>
       <c r="I7">
-        <v>16.98</v>
+        <v>10.28</v>
       </c>
       <c r="J7">
-        <v>11.93</v>
+        <v>5.44</v>
       </c>
       <c r="K7">
-        <v>7.13</v>
+        <v>2.07</v>
       </c>
       <c r="L7">
-        <v>46.97000000000001</v>
+        <v>68.13000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.97</v>
+        <v>0.59</v>
       </c>
       <c r="C8">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="D8">
-        <v>5.83</v>
+        <v>5.5</v>
       </c>
       <c r="E8">
-        <v>9.279999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F8">
-        <v>12.84</v>
+        <v>11.99</v>
       </c>
       <c r="G8">
-        <v>16.18</v>
+        <v>15.23</v>
       </c>
       <c r="H8">
-        <v>17.44</v>
+        <v>17.72</v>
       </c>
       <c r="I8">
-        <v>15.05</v>
+        <v>17.91</v>
       </c>
       <c r="J8">
-        <v>12.03</v>
+        <v>12.78</v>
       </c>
       <c r="K8">
-        <v>7.85</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="L8">
-        <v>47.63</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="D9">
-        <v>4.75</v>
+        <v>3.39</v>
       </c>
       <c r="E9">
-        <v>8.369999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="F9">
-        <v>11.63</v>
+        <v>10.08</v>
       </c>
       <c r="G9">
-        <v>15.41</v>
+        <v>14.92</v>
       </c>
       <c r="H9">
-        <v>17.04</v>
+        <v>18.14</v>
       </c>
       <c r="I9">
-        <v>17.78</v>
+        <v>18.98</v>
       </c>
       <c r="J9">
-        <v>12.92</v>
+        <v>15.96</v>
       </c>
       <c r="K9">
-        <v>8.75</v>
+        <v>10.39</v>
       </c>
       <c r="L9">
-        <v>43.51</v>
+        <v>36.53</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1626,37 +1626,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D10">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
-        <v>0.9400000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F10">
-        <v>2.75</v>
+        <v>2.24</v>
       </c>
       <c r="G10">
-        <v>5.140000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="H10">
-        <v>9.34</v>
+        <v>9.56</v>
       </c>
       <c r="I10">
-        <v>15.62</v>
+        <v>17.31</v>
       </c>
       <c r="J10">
-        <v>24.76</v>
+        <v>26.65</v>
       </c>
       <c r="K10">
-        <v>40.93</v>
+        <v>37.9</v>
       </c>
       <c r="L10">
-        <v>9.350000000000001</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1664,37 +1664,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06999999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="E11">
-        <v>0.98</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="F11">
-        <v>2.33</v>
+        <v>1.42</v>
       </c>
       <c r="G11">
-        <v>5.06</v>
+        <v>3.55</v>
       </c>
       <c r="H11">
-        <v>9.869999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="I11">
-        <v>17.67</v>
+        <v>15.41</v>
       </c>
       <c r="J11">
-        <v>30.75</v>
+        <v>31.17</v>
       </c>
       <c r="K11">
-        <v>32.84</v>
+        <v>39.97</v>
       </c>
       <c r="L11">
-        <v>8.869999999999999</v>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
@@ -1712,16 +1712,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1732,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1763,16 +1763,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1780,16 +1780,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1797,16 +1797,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1820,10 +1820,10 @@
         <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1831,16 +1831,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1848,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1865,16 +1865,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1885,13 +1885,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1901,33 +1901,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1946,103 +1949,118 @@
       <c r="F2">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2061,80 +2079,92 @@
       <c r="F7">
         <v>-2</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
+        <v>-6</v>
+      </c>
+      <c r="D8">
+        <v>-11</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-7</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-11</v>
       </c>
       <c r="E10">
         <v>-2</v>
       </c>
       <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-4</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2153,8 +2183,11 @@
       <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
+      <c r="G11">
+        <v>-19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
   <si>
     <t>Team Singh</t>
   </si>
@@ -1322,37 +1322,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>59.84</v>
+        <v>60.52</v>
       </c>
       <c r="C2">
-        <v>22.21</v>
+        <v>22.46</v>
       </c>
       <c r="D2">
-        <v>10.37</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E2">
-        <v>4.48</v>
+        <v>4.23</v>
       </c>
       <c r="F2">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="H2">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.72000000000001</v>
+        <v>99.71999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1360,113 +1360,113 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>12.82</v>
+        <v>12.69</v>
       </c>
       <c r="C3">
-        <v>19.69</v>
+        <v>19.05</v>
       </c>
       <c r="D3">
-        <v>19.72</v>
+        <v>19.8</v>
       </c>
       <c r="E3">
-        <v>17.78</v>
+        <v>17.49</v>
       </c>
       <c r="F3">
-        <v>12.41</v>
+        <v>13.41</v>
       </c>
       <c r="G3">
-        <v>8.859999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H3">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="I3">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="J3">
-        <v>0.72</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="K3">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="L3">
-        <v>91.27999999999999</v>
+        <v>91.53999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>10.25</v>
+        <v>10.19</v>
       </c>
       <c r="C4">
-        <v>19.06</v>
+        <v>18.07</v>
       </c>
       <c r="D4">
-        <v>17.92</v>
+        <v>18.6</v>
       </c>
       <c r="E4">
-        <v>16.23</v>
+        <v>17.24</v>
       </c>
       <c r="F4">
-        <v>13.51</v>
+        <v>14.02</v>
       </c>
       <c r="G4">
-        <v>10.4</v>
+        <v>10.37</v>
       </c>
       <c r="H4">
-        <v>6.75</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="I4">
-        <v>4.03</v>
+        <v>3.35</v>
       </c>
       <c r="J4">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="K4">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="L4">
-        <v>87.37</v>
+        <v>88.48999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09</v>
+        <v>10.17</v>
       </c>
       <c r="C5">
-        <v>17.25</v>
+        <v>18.29</v>
       </c>
       <c r="D5">
-        <v>18.68</v>
+        <v>18.75</v>
       </c>
       <c r="E5">
-        <v>17.28</v>
+        <v>16.26</v>
       </c>
       <c r="F5">
-        <v>14.47</v>
+        <v>13.93</v>
       </c>
       <c r="G5">
-        <v>10.24</v>
+        <v>10.17</v>
       </c>
       <c r="H5">
-        <v>6.76</v>
+        <v>6.84</v>
       </c>
       <c r="I5">
-        <v>3.65</v>
+        <v>3.97</v>
       </c>
       <c r="J5">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="K5">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="L5">
-        <v>88.00999999999999</v>
+        <v>87.57000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1474,37 +1474,37 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.44</v>
+        <v>3.18</v>
       </c>
       <c r="C6">
-        <v>8.970000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="D6">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="E6">
-        <v>14.45</v>
+        <v>14.06</v>
       </c>
       <c r="F6">
-        <v>15.8</v>
+        <v>15.78</v>
       </c>
       <c r="G6">
-        <v>15.38</v>
+        <v>15.33</v>
       </c>
       <c r="H6">
-        <v>13.78</v>
+        <v>13.41</v>
       </c>
       <c r="I6">
-        <v>9.75</v>
+        <v>10.23</v>
       </c>
       <c r="J6">
-        <v>4.46</v>
+        <v>4.97</v>
       </c>
       <c r="K6">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="L6">
-        <v>70.23999999999999</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1512,37 +1512,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="C7">
-        <v>8.219999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="D7">
-        <v>11.79</v>
+        <v>11.54</v>
       </c>
       <c r="E7">
-        <v>13.92</v>
+        <v>14.05</v>
       </c>
       <c r="F7">
-        <v>16.09</v>
+        <v>15.86</v>
       </c>
       <c r="G7">
-        <v>15.48</v>
+        <v>15.8</v>
       </c>
       <c r="H7">
-        <v>14.08</v>
+        <v>13.85</v>
       </c>
       <c r="I7">
-        <v>10.28</v>
+        <v>10.65</v>
       </c>
       <c r="J7">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="K7">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="L7">
-        <v>68.13000000000001</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1550,37 +1550,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="D8">
-        <v>5.5</v>
+        <v>5.41</v>
       </c>
       <c r="E8">
-        <v>8.210000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F8">
-        <v>11.99</v>
+        <v>11.17</v>
       </c>
       <c r="G8">
-        <v>15.23</v>
+        <v>15.13</v>
       </c>
       <c r="H8">
-        <v>17.72</v>
+        <v>18.36</v>
       </c>
       <c r="I8">
-        <v>17.91</v>
+        <v>17.24</v>
       </c>
       <c r="J8">
-        <v>12.78</v>
+        <v>12.91</v>
       </c>
       <c r="K8">
-        <v>7.149999999999999</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="L8">
-        <v>44.44</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1588,37 +1588,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="C9">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="D9">
-        <v>3.39</v>
+        <v>3.75</v>
       </c>
       <c r="E9">
-        <v>6.25</v>
+        <v>6.56</v>
       </c>
       <c r="F9">
-        <v>10.08</v>
+        <v>10.06</v>
       </c>
       <c r="G9">
-        <v>14.92</v>
+        <v>14.45</v>
       </c>
       <c r="H9">
-        <v>18.14</v>
+        <v>18.33</v>
       </c>
       <c r="I9">
-        <v>18.98</v>
+        <v>18.81</v>
       </c>
       <c r="J9">
-        <v>15.96</v>
+        <v>15.66</v>
       </c>
       <c r="K9">
-        <v>10.39</v>
+        <v>10.37</v>
       </c>
       <c r="L9">
-        <v>36.53</v>
+        <v>36.83</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1626,37 +1626,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C10">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="E10">
-        <v>0.8500000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F10">
-        <v>2.24</v>
+        <v>2.27</v>
       </c>
       <c r="G10">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="H10">
-        <v>9.56</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="I10">
-        <v>17.31</v>
+        <v>16.58</v>
       </c>
       <c r="J10">
-        <v>26.65</v>
+        <v>26.08</v>
       </c>
       <c r="K10">
-        <v>37.9</v>
+        <v>38.95</v>
       </c>
       <c r="L10">
-        <v>8.58</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1667,34 +1667,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E11">
-        <v>0.5499999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="F11">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="G11">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="H11">
-        <v>7.75</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="I11">
-        <v>15.41</v>
+        <v>16.76</v>
       </c>
       <c r="J11">
-        <v>31.17</v>
+        <v>31.74</v>
       </c>
       <c r="K11">
-        <v>39.97</v>
+        <v>38.32</v>
       </c>
       <c r="L11">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
     </row>
   </sheetData>
@@ -1901,177 +1901,159 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-4</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E7">
         <v>-2</v>
@@ -2079,114 +2061,99 @@
       <c r="F7">
         <v>-2</v>
       </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>-6</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="D8">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
         <v>-2</v>
       </c>
-      <c r="F8">
-        <v>-7</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
         <v>-5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10">
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
         <v>-8</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
+      <c r="B11">
+        <v>-8</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D11">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E11">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11">
         <v>-19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="52">
   <si>
     <t>Team Singh</t>
   </si>
@@ -51,22 +51,25 @@
     <t>Team Gupta</t>
   </si>
   <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -126,25 +129,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -160,6 +172,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -566,28 +581,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -595,34 +610,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,34 +645,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -668,31 +683,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -700,34 +715,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -735,34 +750,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -773,31 +788,31 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -811,28 +826,28 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -840,34 +855,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -875,34 +890,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -920,13 +935,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -934,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -948,13 +963,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -962,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -976,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -990,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1007,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1018,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1032,13 +1047,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1049,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1063,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1084,16 +1099,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1104,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999964</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1118,16 +1133,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D3">
-        <v>-0.8999999999999999</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1135,16 +1150,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>-0.2000000000000002</v>
+        <v>-1.6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D5">
-        <v>-1.3</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1169,16 +1184,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1186,13 +1201,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1203,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>2.3</v>
-      </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1220,16 +1235,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1240,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="D10">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1257,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1281,420 +1296,420 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>60.52</v>
+        <v>35.9</v>
       </c>
       <c r="C2">
-        <v>22.46</v>
+        <v>26.81</v>
       </c>
       <c r="D2">
-        <v>9.539999999999999</v>
+        <v>15.98</v>
       </c>
       <c r="E2">
-        <v>4.23</v>
+        <v>9.65</v>
       </c>
       <c r="F2">
-        <v>2.15</v>
+        <v>6.21</v>
       </c>
       <c r="G2">
-        <v>0.8200000000000001</v>
+        <v>3.06</v>
       </c>
       <c r="H2">
-        <v>0.23</v>
+        <v>1.69</v>
       </c>
       <c r="I2">
-        <v>0.05</v>
+        <v>0.62</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>99.71999999999998</v>
+        <v>97.61</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12.69</v>
+        <v>32.46</v>
       </c>
       <c r="C3">
-        <v>19.05</v>
+        <v>22.53</v>
       </c>
       <c r="D3">
-        <v>19.8</v>
+        <v>16.7</v>
       </c>
       <c r="E3">
-        <v>17.49</v>
+        <v>11.55</v>
       </c>
       <c r="F3">
-        <v>13.41</v>
+        <v>7.6</v>
       </c>
       <c r="G3">
-        <v>9.1</v>
+        <v>4.8</v>
       </c>
       <c r="H3">
-        <v>5.3</v>
+        <v>3.05</v>
       </c>
       <c r="I3">
-        <v>2.36</v>
+        <v>1.21</v>
       </c>
       <c r="J3">
-        <v>0.7100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>91.53999999999999</v>
+        <v>95.63999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>10.19</v>
+        <v>10.2</v>
       </c>
       <c r="C4">
-        <v>18.07</v>
+        <v>12.83</v>
       </c>
       <c r="D4">
-        <v>18.6</v>
+        <v>13.88</v>
       </c>
       <c r="E4">
-        <v>17.24</v>
+        <v>15.08</v>
       </c>
       <c r="F4">
-        <v>14.02</v>
+        <v>14.34</v>
       </c>
       <c r="G4">
-        <v>10.37</v>
+        <v>12.92</v>
       </c>
       <c r="H4">
-        <v>6.710000000000001</v>
+        <v>10.72</v>
       </c>
       <c r="I4">
-        <v>3.35</v>
+        <v>7.57</v>
       </c>
       <c r="J4">
-        <v>1.22</v>
+        <v>2.06</v>
       </c>
       <c r="K4">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>88.48999999999999</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>10.17</v>
+        <v>6.17</v>
       </c>
       <c r="C5">
-        <v>18.29</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="D5">
-        <v>18.75</v>
+        <v>11.95</v>
       </c>
       <c r="E5">
-        <v>16.26</v>
+        <v>13.72</v>
       </c>
       <c r="F5">
-        <v>13.93</v>
+        <v>14.3</v>
       </c>
       <c r="G5">
-        <v>10.17</v>
+        <v>14.44</v>
       </c>
       <c r="H5">
-        <v>6.84</v>
+        <v>14.15</v>
       </c>
       <c r="I5">
-        <v>3.97</v>
+        <v>11.09</v>
       </c>
       <c r="J5">
-        <v>1.26</v>
+        <v>3.8</v>
       </c>
       <c r="K5">
-        <v>0.36</v>
+        <v>1.15</v>
       </c>
       <c r="L5">
-        <v>87.57000000000001</v>
+        <v>69.80999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>3.18</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="C6">
-        <v>8.94</v>
+        <v>8.99</v>
       </c>
       <c r="D6">
-        <v>12.11</v>
+        <v>11.92</v>
       </c>
       <c r="E6">
-        <v>14.06</v>
+        <v>13.12</v>
       </c>
       <c r="F6">
-        <v>15.78</v>
+        <v>13.9</v>
       </c>
       <c r="G6">
         <v>15.33</v>
       </c>
       <c r="H6">
-        <v>13.41</v>
+        <v>13.57</v>
       </c>
       <c r="I6">
-        <v>10.23</v>
+        <v>11.35</v>
       </c>
       <c r="J6">
-        <v>4.97</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="K6">
-        <v>1.99</v>
+        <v>1.46</v>
       </c>
       <c r="L6">
-        <v>69.40000000000001</v>
+        <v>68.77000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2.42</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="C7">
-        <v>8.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D7">
-        <v>11.54</v>
+        <v>12.86</v>
       </c>
       <c r="E7">
-        <v>14.05</v>
+        <v>14.53</v>
       </c>
       <c r="F7">
-        <v>15.86</v>
+        <v>14.47</v>
       </c>
       <c r="G7">
-        <v>15.8</v>
+        <v>14.68</v>
       </c>
       <c r="H7">
-        <v>13.85</v>
+        <v>12.52</v>
       </c>
       <c r="I7">
-        <v>10.65</v>
+        <v>10.04</v>
       </c>
       <c r="J7">
-        <v>5.45</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="K7">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="L7">
-        <v>68.09999999999999</v>
+        <v>71.92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.52</v>
+        <v>2.3</v>
       </c>
       <c r="C8">
-        <v>2.91</v>
+        <v>4.88</v>
       </c>
       <c r="D8">
-        <v>5.41</v>
+        <v>8.6</v>
       </c>
       <c r="E8">
-        <v>8.609999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="F8">
-        <v>11.17</v>
+        <v>13.25</v>
       </c>
       <c r="G8">
-        <v>15.13</v>
+        <v>15.16</v>
       </c>
       <c r="H8">
-        <v>18.36</v>
+        <v>16.8</v>
       </c>
       <c r="I8">
-        <v>17.24</v>
+        <v>16.47</v>
       </c>
       <c r="J8">
-        <v>12.91</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K8">
-        <v>7.739999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="L8">
-        <v>43.75</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.28</v>
+        <v>1.95</v>
       </c>
       <c r="C9">
-        <v>1.73</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="D9">
-        <v>3.75</v>
+        <v>7.84</v>
       </c>
       <c r="E9">
-        <v>6.56</v>
+        <v>11.17</v>
       </c>
       <c r="F9">
-        <v>10.06</v>
+        <v>14.07</v>
       </c>
       <c r="G9">
-        <v>14.45</v>
+        <v>15.09</v>
       </c>
       <c r="H9">
-        <v>18.33</v>
+        <v>16.72</v>
       </c>
       <c r="I9">
-        <v>18.81</v>
+        <v>15.92</v>
       </c>
       <c r="J9">
-        <v>15.66</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="K9">
-        <v>10.37</v>
+        <v>3.7</v>
       </c>
       <c r="L9">
-        <v>36.83</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D10">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="E10">
-        <v>0.9199999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="F10">
-        <v>2.27</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G10">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>9.629999999999999</v>
+        <v>5.58</v>
       </c>
       <c r="I10">
-        <v>16.58</v>
+        <v>13.2</v>
       </c>
       <c r="J10">
-        <v>26.08</v>
+        <v>38.77</v>
       </c>
       <c r="K10">
-        <v>38.95</v>
+        <v>39.03</v>
       </c>
       <c r="L10">
-        <v>8.76</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D11">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="E11">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="F11">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="G11">
-        <v>3.73</v>
+        <v>2.42</v>
       </c>
       <c r="H11">
-        <v>7.340000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="I11">
-        <v>16.76</v>
+        <v>12.53</v>
       </c>
       <c r="J11">
-        <v>31.74</v>
+        <v>29.14</v>
       </c>
       <c r="K11">
-        <v>38.32</v>
+        <v>49.21</v>
       </c>
       <c r="L11">
-        <v>5.84</v>
+        <v>3.92</v>
       </c>
     </row>
   </sheetData>
@@ -1712,16 +1727,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1732,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1746,16 +1761,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1766,13 +1781,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1783,13 +1798,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1797,16 +1812,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1814,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1831,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>-2</v>
@@ -1840,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1848,16 +1863,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1865,16 +1880,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1885,13 +1900,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-19</v>
+        <v>-28</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1901,33 +1916,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1946,34 +1964,40 @@
       <c r="F2">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1992,11 +2016,14 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2015,126 +2042,144 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="D7">
         <v>-2</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F7">
         <v>-2</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>-6</v>
       </c>
-      <c r="C8">
-        <v>-11</v>
-      </c>
       <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="F8">
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D10">
         <v>-2</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2153,8 +2198,11 @@
       <c r="F11">
         <v>-19</v>
       </c>
-      <c r="G11" t="s">
-        <v>39</v>
+      <c r="G11">
+        <v>-28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -19,21 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="52">
-  <si>
-    <t>Team Singh</t>
-  </si>
-  <si>
-    <t>Team AShok</t>
-  </si>
-  <si>
-    <t>Team Sachdev</t>
-  </si>
-  <si>
-    <t>Team Aggarwal</t>
-  </si>
-  <si>
-    <t>Team nanda</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+  <si>
+    <t>Still Rollin'</t>
+  </si>
+  <si>
+    <t>NoHalfSends</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Eks Gonna Give It To Ya!</t>
+  </si>
+  <si>
+    <t>Hark</t>
   </si>
   <si>
     <t>Team bhalani</t>
@@ -42,34 +42,37 @@
     <t>Team Padodara</t>
   </si>
   <si>
-    <t>Team Brar</t>
-  </si>
-  <si>
-    <t>Team Khan</t>
-  </si>
-  <si>
-    <t>Team Gupta</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t xml:space="preserve">Killler jatt </t>
+  </si>
+  <si>
+    <t>All Barkley, No Bite</t>
+  </si>
+  <si>
+    <t>BurgerBoyz</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -129,36 +132,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑8</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑10</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -625,16 +625,16 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -645,16 +645,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -680,34 +680,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -715,34 +715,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -759,13 +759,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -785,34 +785,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -820,22 +820,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -844,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -855,22 +855,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -890,34 +890,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -935,13 +935,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -952,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -966,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -977,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -991,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1022,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1036,10 +1036,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1078,10 +1078,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1099,16 +1099,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1136,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>-0.2000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D4">
-        <v>-1.6</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1184,16 +1184,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>-0.8999999999999999</v>
+        <v>-2.1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>0.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1238,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D9">
-        <v>0.7000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1272,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1296,40 +1296,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1337,37 +1337,37 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>35.9</v>
+        <v>40.26</v>
       </c>
       <c r="C2">
-        <v>26.81</v>
+        <v>27.84</v>
       </c>
       <c r="D2">
-        <v>15.98</v>
+        <v>14.19</v>
       </c>
       <c r="E2">
-        <v>9.65</v>
+        <v>8.9</v>
       </c>
       <c r="F2">
-        <v>6.21</v>
+        <v>4.66</v>
       </c>
       <c r="G2">
-        <v>3.06</v>
+        <v>2.39</v>
       </c>
       <c r="H2">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="I2">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0.06999999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="K2">
         <v>0.01</v>
       </c>
       <c r="L2">
-        <v>97.61</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1375,75 +1375,75 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.46</v>
+        <v>31.72</v>
       </c>
       <c r="C3">
-        <v>22.53</v>
+        <v>24.01</v>
       </c>
       <c r="D3">
-        <v>16.7</v>
+        <v>16.62</v>
       </c>
       <c r="E3">
-        <v>11.55</v>
+        <v>11.39</v>
       </c>
       <c r="F3">
-        <v>7.6</v>
+        <v>7.16</v>
       </c>
       <c r="G3">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="H3">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="I3">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L3">
-        <v>95.63999999999999</v>
+        <v>95.34999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>10.2</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="C4">
-        <v>12.83</v>
+        <v>13.07</v>
       </c>
       <c r="D4">
-        <v>13.88</v>
+        <v>15.8</v>
       </c>
       <c r="E4">
-        <v>15.08</v>
+        <v>15.25</v>
       </c>
       <c r="F4">
-        <v>14.34</v>
+        <v>13.36</v>
       </c>
       <c r="G4">
-        <v>12.92</v>
+        <v>12.48</v>
       </c>
       <c r="H4">
-        <v>10.72</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I4">
-        <v>7.57</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="J4">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="L4">
-        <v>79.25</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1451,151 +1451,151 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.17</v>
+        <v>5.72</v>
       </c>
       <c r="C5">
-        <v>9.229999999999999</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="D5">
-        <v>11.95</v>
+        <v>12.62</v>
       </c>
       <c r="E5">
-        <v>13.72</v>
+        <v>13.63</v>
       </c>
       <c r="F5">
-        <v>14.3</v>
+        <v>14.74</v>
       </c>
       <c r="G5">
-        <v>14.44</v>
+        <v>14.17</v>
       </c>
       <c r="H5">
-        <v>14.15</v>
+        <v>13.19</v>
       </c>
       <c r="I5">
-        <v>11.09</v>
+        <v>11.02</v>
       </c>
       <c r="J5">
-        <v>3.8</v>
+        <v>4.36</v>
       </c>
       <c r="K5">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="L5">
-        <v>69.80999999999999</v>
+        <v>70.06</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.510000000000001</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="C6">
-        <v>8.99</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="D6">
-        <v>11.92</v>
+        <v>11.85</v>
       </c>
       <c r="E6">
-        <v>13.12</v>
+        <v>12.93</v>
       </c>
       <c r="F6">
-        <v>13.9</v>
+        <v>14.64</v>
       </c>
       <c r="G6">
-        <v>15.33</v>
+        <v>14.12</v>
       </c>
       <c r="H6">
-        <v>13.57</v>
+        <v>13.76</v>
       </c>
       <c r="I6">
-        <v>11.35</v>
+        <v>11.64</v>
       </c>
       <c r="J6">
-        <v>4.850000000000001</v>
+        <v>5.75</v>
       </c>
       <c r="K6">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="L6">
-        <v>68.77000000000001</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>5.489999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="C7">
-        <v>9.890000000000001</v>
+        <v>6.72</v>
       </c>
       <c r="D7">
-        <v>12.86</v>
+        <v>10.45</v>
       </c>
       <c r="E7">
-        <v>14.53</v>
+        <v>12.71</v>
       </c>
       <c r="F7">
-        <v>14.47</v>
+        <v>14.1</v>
       </c>
       <c r="G7">
-        <v>14.68</v>
+        <v>15.33</v>
       </c>
       <c r="H7">
-        <v>12.52</v>
+        <v>14.41</v>
       </c>
       <c r="I7">
-        <v>10.04</v>
+        <v>12.85</v>
       </c>
       <c r="J7">
-        <v>4.130000000000001</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="K7">
-        <v>1.39</v>
+        <v>2.89</v>
       </c>
       <c r="L7">
-        <v>71.92</v>
+        <v>62.94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="C8">
-        <v>4.88</v>
+        <v>5.680000000000001</v>
       </c>
       <c r="D8">
-        <v>8.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E8">
-        <v>10.59</v>
+        <v>12.83</v>
       </c>
       <c r="F8">
-        <v>13.25</v>
+        <v>14.63</v>
       </c>
       <c r="G8">
-        <v>15.16</v>
+        <v>15.5</v>
       </c>
       <c r="H8">
-        <v>16.8</v>
+        <v>15.2</v>
       </c>
       <c r="I8">
-        <v>16.47</v>
+        <v>12.68</v>
       </c>
       <c r="J8">
-        <v>8.300000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="K8">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="L8">
-        <v>54.78</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1603,113 +1603,113 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="C9">
-        <v>4.760000000000001</v>
+        <v>4.82</v>
       </c>
       <c r="D9">
-        <v>7.84</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="E9">
-        <v>11.17</v>
+        <v>10.89</v>
       </c>
       <c r="F9">
-        <v>14.07</v>
+        <v>13.56</v>
       </c>
       <c r="G9">
-        <v>15.09</v>
+        <v>14.93</v>
       </c>
       <c r="H9">
-        <v>16.72</v>
+        <v>16.45</v>
       </c>
       <c r="I9">
-        <v>15.92</v>
+        <v>14.99</v>
       </c>
       <c r="J9">
-        <v>8.780000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="K9">
-        <v>3.7</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="L9">
-        <v>54.88</v>
+        <v>54.35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D10">
-        <v>0.15</v>
+        <v>0.48</v>
       </c>
       <c r="E10">
-        <v>0.26</v>
+        <v>1.21</v>
       </c>
       <c r="F10">
-        <v>0.8500000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>4.53</v>
       </c>
       <c r="H10">
-        <v>5.58</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="I10">
-        <v>13.2</v>
+        <v>15.48</v>
       </c>
       <c r="J10">
-        <v>38.77</v>
+        <v>29.84</v>
       </c>
       <c r="K10">
-        <v>39.03</v>
+        <v>37.66</v>
       </c>
       <c r="L10">
-        <v>3.42</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0.03</v>
       </c>
       <c r="D11">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="F11">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="G11">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="H11">
-        <v>5.2</v>
+        <v>4.569999999999999</v>
       </c>
       <c r="I11">
-        <v>12.53</v>
+        <v>11.9</v>
       </c>
       <c r="J11">
-        <v>29.14</v>
+        <v>32.48</v>
       </c>
       <c r="K11">
-        <v>49.21</v>
+        <v>47.68</v>
       </c>
       <c r="L11">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
     </row>
   </sheetData>
@@ -1727,16 +1727,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1747,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1761,16 +1761,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1778,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1795,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1812,16 +1812,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1829,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1846,16 +1846,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1866,13 +1866,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1883,13 +1883,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-20</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1906,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1916,36 +1916,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1967,167 +1970,188 @@
       <c r="G2">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-4</v>
-      </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>-4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-6</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-11</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-7</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-2</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-6</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2149,11 +2173,14 @@
       <c r="G9">
         <v>-8</v>
       </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2175,11 +2202,14 @@
       <c r="G10">
         <v>-13</v>
       </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>-20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2201,8 +2231,11 @@
       <c r="G11">
         <v>-28</v>
       </c>
-      <c r="H11" t="s">
-        <v>45</v>
+      <c r="H11">
+        <v>-28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -126,12 +127,45 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Harman Brar</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>Sahir Sachdev</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
@@ -175,6 +209,27 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1337,37 +1392,37 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>40.26</v>
+        <v>40.33</v>
       </c>
       <c r="C2">
-        <v>27.84</v>
+        <v>26.85</v>
       </c>
       <c r="D2">
-        <v>14.19</v>
+        <v>15.46</v>
       </c>
       <c r="E2">
-        <v>8.9</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="F2">
-        <v>4.66</v>
+        <v>4.45</v>
       </c>
       <c r="G2">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="H2">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="J2">
         <v>0.06</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>98.23999999999999</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1375,37 +1430,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.72</v>
+        <v>31.78</v>
       </c>
       <c r="C3">
-        <v>24.01</v>
+        <v>24.57</v>
       </c>
       <c r="D3">
-        <v>16.62</v>
+        <v>16.83</v>
       </c>
       <c r="E3">
-        <v>11.39</v>
+        <v>10.95</v>
       </c>
       <c r="F3">
-        <v>7.16</v>
+        <v>6.87</v>
       </c>
       <c r="G3">
-        <v>4.45</v>
+        <v>4.74</v>
       </c>
       <c r="H3">
-        <v>2.91</v>
+        <v>2.66</v>
       </c>
       <c r="I3">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="J3">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
-        <v>95.34999999999999</v>
+        <v>95.74000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1413,37 +1468,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>9.710000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="C4">
-        <v>13.07</v>
+        <v>13.66</v>
       </c>
       <c r="D4">
-        <v>15.8</v>
+        <v>15.76</v>
       </c>
       <c r="E4">
-        <v>15.25</v>
+        <v>15.08</v>
       </c>
       <c r="F4">
-        <v>13.36</v>
+        <v>14.37</v>
       </c>
       <c r="G4">
-        <v>12.48</v>
+        <v>11.5</v>
       </c>
       <c r="H4">
-        <v>9.969999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="I4">
-        <v>7.430000000000001</v>
+        <v>6.76</v>
       </c>
       <c r="J4">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="K4">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="L4">
-        <v>79.67</v>
+        <v>80.42</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1451,37 +1506,37 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="C5">
-        <v>9.180000000000001</v>
+        <v>9.82</v>
       </c>
       <c r="D5">
-        <v>12.62</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>13.63</v>
+        <v>14.08</v>
       </c>
       <c r="F5">
-        <v>14.74</v>
+        <v>14.9</v>
       </c>
       <c r="G5">
-        <v>14.17</v>
+        <v>14.07</v>
       </c>
       <c r="H5">
-        <v>13.19</v>
+        <v>12.87</v>
       </c>
       <c r="I5">
-        <v>11.02</v>
+        <v>10.79</v>
       </c>
       <c r="J5">
-        <v>4.36</v>
+        <v>4.45</v>
       </c>
       <c r="K5">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="L5">
-        <v>70.06</v>
+        <v>70.55999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1489,37 +1544,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>4.760000000000001</v>
+        <v>4.48</v>
       </c>
       <c r="C6">
-        <v>8.559999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D6">
-        <v>11.85</v>
+        <v>12.04</v>
       </c>
       <c r="E6">
-        <v>12.93</v>
+        <v>13.13</v>
       </c>
       <c r="F6">
-        <v>14.64</v>
+        <v>13.73</v>
       </c>
       <c r="G6">
-        <v>14.12</v>
+        <v>14.85</v>
       </c>
       <c r="H6">
-        <v>13.76</v>
+        <v>13.51</v>
       </c>
       <c r="I6">
-        <v>11.64</v>
+        <v>12.25</v>
       </c>
       <c r="J6">
-        <v>5.75</v>
+        <v>5.79</v>
       </c>
       <c r="K6">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="L6">
-        <v>66.86</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1527,37 +1582,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.63</v>
+        <v>3.26</v>
       </c>
       <c r="C7">
-        <v>6.72</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="D7">
-        <v>10.45</v>
+        <v>9.92</v>
       </c>
       <c r="E7">
-        <v>12.71</v>
+        <v>12.43</v>
       </c>
       <c r="F7">
-        <v>14.1</v>
+        <v>14.06</v>
       </c>
       <c r="G7">
-        <v>15.33</v>
+        <v>15.43</v>
       </c>
       <c r="H7">
-        <v>14.41</v>
+        <v>14.71</v>
       </c>
       <c r="I7">
-        <v>12.85</v>
+        <v>13.61</v>
       </c>
       <c r="J7">
-        <v>6.909999999999999</v>
+        <v>7.21</v>
       </c>
       <c r="K7">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="L7">
-        <v>62.94</v>
+        <v>61.52</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1565,37 +1620,37 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2.31</v>
+        <v>2.58</v>
       </c>
       <c r="C8">
-        <v>5.680000000000001</v>
+        <v>5.38</v>
       </c>
       <c r="D8">
-        <v>9.640000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="E8">
-        <v>12.83</v>
+        <v>13.3</v>
       </c>
       <c r="F8">
-        <v>14.63</v>
+        <v>15.05</v>
       </c>
       <c r="G8">
         <v>15.5</v>
       </c>
       <c r="H8">
-        <v>15.2</v>
+        <v>15.54</v>
       </c>
       <c r="I8">
-        <v>12.68</v>
+        <v>12.17</v>
       </c>
       <c r="J8">
-        <v>8.17</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="K8">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="L8">
-        <v>60.59</v>
+        <v>61.16</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1603,37 +1658,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="C9">
-        <v>4.82</v>
+        <v>4.77</v>
       </c>
       <c r="D9">
-        <v>8.260000000000002</v>
+        <v>8.15</v>
       </c>
       <c r="E9">
-        <v>10.89</v>
+        <v>10.93</v>
       </c>
       <c r="F9">
-        <v>13.56</v>
+        <v>13.52</v>
       </c>
       <c r="G9">
-        <v>14.93</v>
+        <v>14.98</v>
       </c>
       <c r="H9">
-        <v>16.45</v>
+        <v>16.5</v>
       </c>
       <c r="I9">
-        <v>14.99</v>
+        <v>15.46</v>
       </c>
       <c r="J9">
-        <v>9.82</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K9">
-        <v>4.390000000000001</v>
+        <v>3.99</v>
       </c>
       <c r="L9">
-        <v>54.35</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1641,37 +1696,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C10">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="D10">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="F10">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="G10">
-        <v>4.53</v>
+        <v>4.31</v>
       </c>
       <c r="H10">
-        <v>8.450000000000001</v>
+        <v>8.24</v>
       </c>
       <c r="I10">
-        <v>15.48</v>
+        <v>15.34</v>
       </c>
       <c r="J10">
-        <v>29.84</v>
+        <v>30.64</v>
       </c>
       <c r="K10">
-        <v>37.66</v>
+        <v>37.63</v>
       </c>
       <c r="L10">
-        <v>8.57</v>
+        <v>8.149999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1682,34 +1737,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
         <v>0.09</v>
       </c>
       <c r="E11">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="F11">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="G11">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H11">
-        <v>4.569999999999999</v>
+        <v>4.65</v>
       </c>
       <c r="I11">
-        <v>11.9</v>
+        <v>11.82</v>
       </c>
       <c r="J11">
-        <v>32.48</v>
+        <v>31.62</v>
       </c>
       <c r="K11">
-        <v>47.68</v>
+        <v>48.36</v>
       </c>
       <c r="L11">
-        <v>3.37</v>
+        <v>3.55</v>
       </c>
     </row>
   </sheetData>
@@ -1719,13 +1774,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1733,180 +1788,213 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
         <v>-4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
         <v>-5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>-12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
         <v>-20</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
         <v>-28</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1924,28 +2012,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1974,7 +2062,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2003,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2032,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2061,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2090,7 +2178,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2119,7 +2207,7 @@
         <v>-4</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2148,7 +2236,7 @@
         <v>-5</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2177,7 +2265,7 @@
         <v>-12</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2206,7 +2294,7 @@
         <v>-20</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2235,7 +2323,277 @@
         <v>-28</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>-28</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>-17</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-28</v>
+      </c>
+      <c r="F6">
+        <v>-13</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-8</v>
+      </c>
+      <c r="F7">
+        <v>-19</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>-6</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="74">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,28 +52,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,18 +142,18 @@
     <t>KASHYAP AShok</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
@@ -166,30 +169,36 @@
     <t>Sahir Sachdev</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,28 +648,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -668,31 +680,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -703,19 +715,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -724,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -738,22 +750,22 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -776,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -805,34 +817,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -861,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -875,34 +887,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -913,31 +925,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,25 +960,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -990,13 +1002,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1007,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1018,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1035,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1046,13 +1058,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1060,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1091,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1105,10 +1117,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1119,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1133,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1154,16 +1166,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1174,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1188,13 +1200,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>4.6</v>
-      </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1205,16 +1217,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>-2.1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1225,10 +1237,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1239,16 +1251,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D6">
-        <v>-2.1</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1259,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1276,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D8">
-        <v>-0.8999999999999999</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1293,13 +1305,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>0.7999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1310,13 +1322,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1327,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1351,40 +1363,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1392,37 +1404,37 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>40.33</v>
+        <v>28.35</v>
       </c>
       <c r="C2">
-        <v>26.85</v>
+        <v>21.44</v>
       </c>
       <c r="D2">
-        <v>15.46</v>
+        <v>17.27</v>
       </c>
       <c r="E2">
-        <v>8.559999999999999</v>
+        <v>12.33</v>
       </c>
       <c r="F2">
-        <v>4.45</v>
+        <v>8.98</v>
       </c>
       <c r="G2">
-        <v>2.46</v>
+        <v>5.84</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>3.59</v>
       </c>
       <c r="I2">
-        <v>0.53</v>
+        <v>1.84</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L2">
-        <v>98.11</v>
+        <v>94.21000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1430,37 +1442,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.78</v>
+        <v>25.47</v>
       </c>
       <c r="C3">
-        <v>24.57</v>
+        <v>23.04</v>
       </c>
       <c r="D3">
-        <v>16.83</v>
+        <v>17.44</v>
       </c>
       <c r="E3">
-        <v>10.95</v>
+        <v>13.14</v>
       </c>
       <c r="F3">
-        <v>6.87</v>
+        <v>9.32</v>
       </c>
       <c r="G3">
-        <v>4.74</v>
+        <v>6.08</v>
       </c>
       <c r="H3">
-        <v>2.66</v>
+        <v>3.57</v>
       </c>
       <c r="I3">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="K3">
         <v>0.04</v>
       </c>
       <c r="L3">
-        <v>95.74000000000001</v>
+        <v>94.48999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1468,37 +1480,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>10.05</v>
+        <v>16.38</v>
       </c>
       <c r="C4">
-        <v>13.66</v>
+        <v>16.38</v>
       </c>
       <c r="D4">
-        <v>15.76</v>
+        <v>15.47</v>
       </c>
       <c r="E4">
-        <v>15.08</v>
+        <v>14.21</v>
       </c>
       <c r="F4">
-        <v>14.37</v>
+        <v>12.62</v>
       </c>
       <c r="G4">
-        <v>11.5</v>
+        <v>10.44</v>
       </c>
       <c r="H4">
-        <v>10.02</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>6.76</v>
+        <v>4.84</v>
       </c>
       <c r="J4">
-        <v>2.38</v>
+        <v>1.56</v>
       </c>
       <c r="K4">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>80.42</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1506,113 +1518,113 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.69</v>
+        <v>15.07</v>
       </c>
       <c r="C5">
-        <v>9.82</v>
+        <v>15.43</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>15.74</v>
       </c>
       <c r="E5">
-        <v>14.08</v>
+        <v>15.38</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>13.31</v>
       </c>
       <c r="G5">
-        <v>14.07</v>
+        <v>10.79</v>
       </c>
       <c r="H5">
-        <v>12.87</v>
+        <v>7.73</v>
       </c>
       <c r="I5">
-        <v>10.79</v>
+        <v>4.67</v>
       </c>
       <c r="J5">
-        <v>4.45</v>
+        <v>1.57</v>
       </c>
       <c r="K5">
-        <v>1.33</v>
+        <v>0.31</v>
       </c>
       <c r="L5">
-        <v>70.55999999999999</v>
+        <v>85.72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4.48</v>
+        <v>4.89</v>
       </c>
       <c r="C6">
-        <v>8.4</v>
+        <v>6.84</v>
       </c>
       <c r="D6">
-        <v>12.04</v>
+        <v>9.82</v>
       </c>
       <c r="E6">
-        <v>13.13</v>
+        <v>12.51</v>
       </c>
       <c r="F6">
-        <v>13.73</v>
+        <v>13.56</v>
       </c>
       <c r="G6">
-        <v>14.85</v>
+        <v>14.61</v>
       </c>
       <c r="H6">
-        <v>13.51</v>
+        <v>14.74</v>
       </c>
       <c r="I6">
-        <v>12.25</v>
+        <v>13.78</v>
       </c>
       <c r="J6">
-        <v>5.79</v>
+        <v>6.81</v>
       </c>
       <c r="K6">
-        <v>1.82</v>
+        <v>2.44</v>
       </c>
       <c r="L6">
-        <v>66.63</v>
+        <v>62.23</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3.26</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="C7">
-        <v>6.419999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="D7">
-        <v>9.92</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E7">
-        <v>12.43</v>
+        <v>11.78</v>
       </c>
       <c r="F7">
-        <v>14.06</v>
+        <v>13.96</v>
       </c>
       <c r="G7">
-        <v>15.43</v>
+        <v>14.87</v>
       </c>
       <c r="H7">
-        <v>14.71</v>
+        <v>15.09</v>
       </c>
       <c r="I7">
-        <v>13.61</v>
+        <v>13.88</v>
       </c>
       <c r="J7">
-        <v>7.21</v>
+        <v>6.3</v>
       </c>
       <c r="K7">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="L7">
-        <v>61.52</v>
+        <v>62.61</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1620,37 +1632,37 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="C8">
-        <v>5.38</v>
+        <v>5.07</v>
       </c>
       <c r="D8">
-        <v>9.35</v>
+        <v>7.46</v>
       </c>
       <c r="E8">
-        <v>13.3</v>
+        <v>10.44</v>
       </c>
       <c r="F8">
-        <v>15.05</v>
+        <v>13.47</v>
       </c>
       <c r="G8">
-        <v>15.5</v>
+        <v>16.16</v>
       </c>
       <c r="H8">
-        <v>15.54</v>
+        <v>17.49</v>
       </c>
       <c r="I8">
-        <v>12.17</v>
+        <v>14.09</v>
       </c>
       <c r="J8">
-        <v>7.670000000000001</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="K8">
-        <v>3.46</v>
+        <v>4.27</v>
       </c>
       <c r="L8">
-        <v>61.16</v>
+        <v>55.28999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1658,37 +1670,37 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="C9">
-        <v>4.77</v>
+        <v>4.12</v>
       </c>
       <c r="D9">
-        <v>8.15</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="E9">
-        <v>10.93</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="F9">
-        <v>13.52</v>
+        <v>12.25</v>
       </c>
       <c r="G9">
-        <v>14.98</v>
+        <v>15.17</v>
       </c>
       <c r="H9">
-        <v>16.5</v>
+        <v>17.45</v>
       </c>
       <c r="I9">
-        <v>15.46</v>
+        <v>17.34</v>
       </c>
       <c r="J9">
-        <v>9.890000000000001</v>
+        <v>10.67</v>
       </c>
       <c r="K9">
-        <v>3.99</v>
+        <v>4.62</v>
       </c>
       <c r="L9">
-        <v>54.16</v>
+        <v>49.92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1696,37 +1708,37 @@
         <v>2</v>
       </c>
       <c r="B10">
+        <v>0.03</v>
+      </c>
+      <c r="C10">
         <v>0.02</v>
       </c>
-      <c r="C10">
-        <v>0.12</v>
-      </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="G10">
-        <v>4.31</v>
+        <v>3.11</v>
       </c>
       <c r="H10">
-        <v>8.24</v>
+        <v>6.31</v>
       </c>
       <c r="I10">
-        <v>15.34</v>
+        <v>13.64</v>
       </c>
       <c r="J10">
-        <v>30.64</v>
+        <v>27.28</v>
       </c>
       <c r="K10">
-        <v>37.63</v>
+        <v>47.45</v>
       </c>
       <c r="L10">
-        <v>8.149999999999999</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1737,34 +1749,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>1.13</v>
       </c>
       <c r="G11">
-        <v>2.16</v>
+        <v>2.93</v>
       </c>
       <c r="H11">
-        <v>4.65</v>
+        <v>6.23</v>
       </c>
       <c r="I11">
-        <v>11.82</v>
+        <v>14.3</v>
       </c>
       <c r="J11">
-        <v>31.62</v>
+        <v>36.34</v>
       </c>
       <c r="K11">
-        <v>48.36</v>
+        <v>38.42</v>
       </c>
       <c r="L11">
-        <v>3.55</v>
+        <v>4.71</v>
       </c>
     </row>
   </sheetData>
@@ -1782,19 +1794,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1805,16 +1817,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1822,19 +1834,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1842,19 +1854,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1862,19 +1874,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1882,19 +1894,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1905,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1925,16 +1937,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1945,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1965,16 +1977,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1985,16 +1997,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2004,39 +2016,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2061,127 +2076,142 @@
       <c r="H2">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2206,11 +2236,14 @@
       <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2235,11 +2268,14 @@
       <c r="H8">
         <v>-5</v>
       </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2264,11 +2300,14 @@
       <c r="H9">
         <v>-12</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2293,11 +2332,14 @@
       <c r="H10">
         <v>-20</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2322,8 +2364,11 @@
       <c r="H11">
         <v>-28</v>
       </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="I11">
+        <v>-30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2378,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2341,25 +2386,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2419,25 +2464,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="F4">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2445,25 +2490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2471,25 +2516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2497,22 +2542,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="F7">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -2526,22 +2571,22 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-19</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2549,25 +2594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2575,24 +2620,76 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>-6</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>-11</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="73">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,28 +52,28 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,60 +136,63 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>KASHYAP AShok</t>
   </si>
   <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Harman Brar</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Harman Brar</t>
-  </si>
-  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
+    <t>Sahir Sachdev</t>
+  </si>
+  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>Sahir Sachdev</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -209,6 +212,12 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -668,16 +677,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -686,13 +695,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -700,34 +709,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -738,31 +747,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -805,34 +814,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,34 +849,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -875,16 +884,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -896,13 +905,13 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -910,34 +919,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -945,34 +954,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1018,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1032,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1046,13 +1055,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1063,10 +1072,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1074,13 +1083,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1105,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1119,10 +1128,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1133,10 +1142,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1188,16 +1197,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>-2.3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,13 +1214,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4">
-        <v>0.09999999999999964</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1225,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1248,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-2.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1259,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1273,16 +1282,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D8">
-        <v>-0.8999999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1293,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>0.7999999999999998</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,16 +1316,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1327,10 +1336,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -1389,40 +1398,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40.33</v>
+        <v>25.99</v>
       </c>
       <c r="C2">
-        <v>26.85</v>
+        <v>20.9</v>
       </c>
       <c r="D2">
-        <v>15.46</v>
+        <v>17.34</v>
       </c>
       <c r="E2">
-        <v>8.559999999999999</v>
+        <v>13.13</v>
       </c>
       <c r="F2">
-        <v>4.45</v>
+        <v>9.49</v>
       </c>
       <c r="G2">
-        <v>2.46</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>3.95</v>
       </c>
       <c r="I2">
-        <v>0.53</v>
+        <v>2.13</v>
       </c>
       <c r="J2">
-        <v>0.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L2">
-        <v>98.11</v>
+        <v>92.84999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1430,75 +1439,75 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.78</v>
+        <v>22.72</v>
       </c>
       <c r="C3">
-        <v>24.57</v>
+        <v>18.2</v>
       </c>
       <c r="D3">
-        <v>16.83</v>
+        <v>16.01</v>
       </c>
       <c r="E3">
-        <v>10.95</v>
+        <v>12.57</v>
       </c>
       <c r="F3">
-        <v>6.87</v>
+        <v>10.71</v>
       </c>
       <c r="G3">
-        <v>4.74</v>
+        <v>7.71</v>
       </c>
       <c r="H3">
-        <v>2.66</v>
+        <v>6.01</v>
       </c>
       <c r="I3">
-        <v>1.27</v>
+        <v>3.79</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>1.82</v>
       </c>
       <c r="K3">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="L3">
-        <v>95.74000000000001</v>
+        <v>87.92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>10.05</v>
+        <v>21.52</v>
       </c>
       <c r="C4">
-        <v>13.66</v>
+        <v>19.01</v>
       </c>
       <c r="D4">
-        <v>15.76</v>
+        <v>16.09</v>
       </c>
       <c r="E4">
-        <v>15.08</v>
+        <v>13.52</v>
       </c>
       <c r="F4">
-        <v>14.37</v>
+        <v>10.43</v>
       </c>
       <c r="G4">
-        <v>11.5</v>
+        <v>8.08</v>
       </c>
       <c r="H4">
-        <v>10.02</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="I4">
-        <v>6.76</v>
+        <v>3.34</v>
       </c>
       <c r="J4">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="L4">
-        <v>80.42</v>
+        <v>88.64999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1506,189 +1515,189 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>5.69</v>
+        <v>16.05</v>
       </c>
       <c r="C5">
-        <v>9.82</v>
+        <v>18.65</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>17.82</v>
       </c>
       <c r="E5">
-        <v>14.08</v>
+        <v>15.78</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>12.3</v>
       </c>
       <c r="G5">
-        <v>14.07</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="H5">
-        <v>12.87</v>
+        <v>5.82</v>
       </c>
       <c r="I5">
-        <v>10.79</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
-        <v>4.45</v>
+        <v>1.5</v>
       </c>
       <c r="K5">
-        <v>1.33</v>
+        <v>0.36</v>
       </c>
       <c r="L5">
-        <v>70.55999999999999</v>
+        <v>89.06999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>4.48</v>
+        <v>6.54</v>
       </c>
       <c r="C6">
-        <v>8.4</v>
+        <v>9.33</v>
       </c>
       <c r="D6">
-        <v>12.04</v>
+        <v>10.6</v>
       </c>
       <c r="E6">
-        <v>13.13</v>
+        <v>13.21</v>
       </c>
       <c r="F6">
-        <v>13.73</v>
+        <v>13.77</v>
       </c>
       <c r="G6">
-        <v>14.85</v>
+        <v>14.04</v>
       </c>
       <c r="H6">
-        <v>13.51</v>
+        <v>11.73</v>
       </c>
       <c r="I6">
-        <v>12.25</v>
+        <v>10.04</v>
       </c>
       <c r="J6">
-        <v>5.79</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="K6">
-        <v>1.82</v>
+        <v>3.59</v>
       </c>
       <c r="L6">
-        <v>66.63</v>
+        <v>67.49000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3.26</v>
+        <v>3.59</v>
       </c>
       <c r="C7">
-        <v>6.419999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="D7">
-        <v>9.92</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E7">
-        <v>12.43</v>
+        <v>11.18</v>
       </c>
       <c r="F7">
-        <v>14.06</v>
+        <v>12.52</v>
       </c>
       <c r="G7">
-        <v>15.43</v>
+        <v>14.29</v>
       </c>
       <c r="H7">
-        <v>14.71</v>
+        <v>14.07</v>
       </c>
       <c r="I7">
-        <v>13.61</v>
+        <v>13.09</v>
       </c>
       <c r="J7">
-        <v>7.21</v>
+        <v>10.57</v>
       </c>
       <c r="K7">
-        <v>2.95</v>
+        <v>5.52</v>
       </c>
       <c r="L7">
-        <v>61.52</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="C8">
-        <v>5.38</v>
+        <v>3.48</v>
       </c>
       <c r="D8">
-        <v>9.35</v>
+        <v>5.93</v>
       </c>
       <c r="E8">
-        <v>13.3</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="F8">
-        <v>15.05</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>15.5</v>
+        <v>13.33</v>
       </c>
       <c r="H8">
-        <v>15.54</v>
+        <v>14.73</v>
       </c>
       <c r="I8">
-        <v>12.17</v>
+        <v>15.89</v>
       </c>
       <c r="J8">
-        <v>7.670000000000001</v>
+        <v>14.84</v>
       </c>
       <c r="K8">
-        <v>3.46</v>
+        <v>10.63</v>
       </c>
       <c r="L8">
-        <v>61.16</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1.81</v>
+        <v>0.98</v>
       </c>
       <c r="C9">
-        <v>4.77</v>
+        <v>2.43</v>
       </c>
       <c r="D9">
-        <v>8.15</v>
+        <v>4.06</v>
       </c>
       <c r="E9">
-        <v>10.93</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="F9">
-        <v>13.52</v>
+        <v>9.25</v>
       </c>
       <c r="G9">
-        <v>14.98</v>
+        <v>12.79</v>
       </c>
       <c r="H9">
-        <v>16.5</v>
+        <v>14.76</v>
       </c>
       <c r="I9">
-        <v>15.46</v>
+        <v>17.46</v>
       </c>
       <c r="J9">
-        <v>9.890000000000001</v>
+        <v>18.21</v>
       </c>
       <c r="K9">
-        <v>3.99</v>
+        <v>13.82</v>
       </c>
       <c r="L9">
-        <v>54.16</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1696,37 +1705,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.74</v>
       </c>
       <c r="C10">
-        <v>0.12</v>
+        <v>1.36</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>3.22</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>5.36</v>
       </c>
       <c r="F10">
-        <v>2.1</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="G10">
-        <v>4.31</v>
+        <v>11.4</v>
       </c>
       <c r="H10">
-        <v>8.24</v>
+        <v>15.87</v>
       </c>
       <c r="I10">
-        <v>15.34</v>
+        <v>17.59</v>
       </c>
       <c r="J10">
-        <v>30.64</v>
+        <v>19.61</v>
       </c>
       <c r="K10">
-        <v>37.63</v>
+        <v>16.31</v>
       </c>
       <c r="L10">
-        <v>8.149999999999999</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1734,37 +1743,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="E11">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>1.89</v>
       </c>
       <c r="G11">
-        <v>2.16</v>
+        <v>3.89</v>
       </c>
       <c r="H11">
-        <v>4.65</v>
+        <v>7.21</v>
       </c>
       <c r="I11">
-        <v>11.82</v>
+        <v>13.42</v>
       </c>
       <c r="J11">
-        <v>31.62</v>
+        <v>23.58</v>
       </c>
       <c r="K11">
-        <v>48.36</v>
+        <v>48.8</v>
       </c>
       <c r="L11">
-        <v>3.55</v>
+        <v>6.99</v>
       </c>
     </row>
   </sheetData>
@@ -1802,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -1822,13 +1831,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1842,16 +1851,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1862,16 +1871,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1882,19 +1891,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1902,19 +1911,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1922,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1948,13 +1957,13 @@
         <v>45</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1962,19 +1971,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1982,19 +1991,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-32</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2004,242 +2013,290 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>31</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-11</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>-4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-6</v>
-      </c>
-      <c r="C8">
-        <v>-11</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2264,66 +2321,84 @@
       <c r="H9">
         <v>-12</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-18</v>
+      </c>
+      <c r="J9">
+        <v>-18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <v>-17</v>
+      </c>
+      <c r="F10">
+        <v>-19</v>
+      </c>
+      <c r="G10">
+        <v>-28</v>
+      </c>
+      <c r="H10">
+        <v>-28</v>
+      </c>
+      <c r="I10">
+        <v>-30</v>
+      </c>
+      <c r="J10">
+        <v>-23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-2</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-2</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-2</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-20</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-13</v>
-      </c>
-      <c r="E11">
-        <v>-17</v>
-      </c>
-      <c r="F11">
-        <v>-19</v>
-      </c>
-      <c r="G11">
-        <v>-28</v>
-      </c>
-      <c r="H11">
-        <v>-28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
+      <c r="I11">
+        <v>-24</v>
+      </c>
+      <c r="J11">
+        <v>-32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2341,25 +2416,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2393,25 +2468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>-23</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>28</v>
-      </c>
       <c r="G3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2419,25 +2494,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>-17</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2445,25 +2520,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2471,22 +2546,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -2497,25 +2572,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="F7">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2523,25 +2598,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>-28</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2549,25 +2624,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2575,24 +2650,128 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-19</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>-6</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -1398,192 +1398,192 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>25.99</v>
+        <v>19.85</v>
       </c>
       <c r="C2">
-        <v>20.9</v>
+        <v>15.42</v>
       </c>
       <c r="D2">
-        <v>17.34</v>
+        <v>8.66</v>
       </c>
       <c r="E2">
-        <v>13.13</v>
+        <v>15.02</v>
       </c>
       <c r="F2">
-        <v>9.49</v>
+        <v>12.46</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>3.97</v>
       </c>
       <c r="H2">
-        <v>3.95</v>
+        <v>7.26</v>
       </c>
       <c r="I2">
-        <v>2.13</v>
+        <v>8.99</v>
       </c>
       <c r="J2">
-        <v>0.9199999999999999</v>
+        <v>4.54</v>
       </c>
       <c r="K2">
-        <v>0.15</v>
+        <v>3.83</v>
       </c>
       <c r="L2">
-        <v>92.84999999999999</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>22.72</v>
+        <v>15.9</v>
       </c>
       <c r="C3">
-        <v>18.2</v>
+        <v>16.88</v>
       </c>
       <c r="D3">
-        <v>16.01</v>
+        <v>10.12</v>
       </c>
       <c r="E3">
-        <v>12.57</v>
+        <v>11.98</v>
       </c>
       <c r="F3">
-        <v>10.71</v>
+        <v>15.3</v>
       </c>
       <c r="G3">
-        <v>7.71</v>
+        <v>6.05</v>
       </c>
       <c r="H3">
-        <v>6.01</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="I3">
-        <v>3.79</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="J3">
-        <v>1.82</v>
+        <v>5.21</v>
       </c>
       <c r="K3">
-        <v>0.46</v>
+        <v>3.84</v>
       </c>
       <c r="L3">
-        <v>87.92</v>
+        <v>76.22999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>21.52</v>
+        <v>15.21</v>
       </c>
       <c r="C4">
-        <v>19.01</v>
+        <v>17.13</v>
       </c>
       <c r="D4">
-        <v>16.09</v>
+        <v>13.61</v>
       </c>
       <c r="E4">
-        <v>13.52</v>
+        <v>10.02</v>
       </c>
       <c r="F4">
-        <v>10.43</v>
+        <v>15.74</v>
       </c>
       <c r="G4">
-        <v>8.08</v>
+        <v>8.51</v>
       </c>
       <c r="H4">
-        <v>5.850000000000001</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I4">
-        <v>3.34</v>
+        <v>7.35</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>4.62</v>
       </c>
       <c r="K4">
-        <v>0.36</v>
+        <v>2.96</v>
       </c>
       <c r="L4">
-        <v>88.64999999999999</v>
+        <v>80.22000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>16.05</v>
+        <v>11.87</v>
       </c>
       <c r="C5">
-        <v>18.65</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="D5">
-        <v>17.82</v>
+        <v>9.09</v>
       </c>
       <c r="E5">
-        <v>15.78</v>
+        <v>15.76</v>
       </c>
       <c r="F5">
-        <v>12.3</v>
+        <v>7.91</v>
       </c>
       <c r="G5">
-        <v>8.469999999999999</v>
+        <v>5.09</v>
       </c>
       <c r="H5">
-        <v>5.82</v>
+        <v>13.41</v>
       </c>
       <c r="I5">
-        <v>3.25</v>
+        <v>10.6</v>
       </c>
       <c r="J5">
-        <v>1.5</v>
+        <v>8.19</v>
       </c>
       <c r="K5">
-        <v>0.36</v>
+        <v>9.43</v>
       </c>
       <c r="L5">
-        <v>89.06999999999999</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>6.54</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="C6">
-        <v>9.33</v>
+        <v>13.9</v>
       </c>
       <c r="D6">
-        <v>10.6</v>
+        <v>14.37</v>
       </c>
       <c r="E6">
-        <v>13.21</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F6">
-        <v>13.77</v>
+        <v>15.06</v>
       </c>
       <c r="G6">
-        <v>14.04</v>
+        <v>12.83</v>
       </c>
       <c r="H6">
-        <v>11.73</v>
+        <v>6.05</v>
       </c>
       <c r="I6">
-        <v>10.04</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J6">
-        <v>7.149999999999999</v>
+        <v>6.03</v>
       </c>
       <c r="K6">
-        <v>3.59</v>
+        <v>4.05</v>
       </c>
       <c r="L6">
-        <v>67.49000000000001</v>
+        <v>75.24000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1591,37 +1591,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.59</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="C7">
-        <v>6.56</v>
+        <v>6.59</v>
       </c>
       <c r="D7">
-        <v>8.609999999999999</v>
+        <v>11.53</v>
       </c>
       <c r="E7">
-        <v>11.18</v>
+        <v>13.32</v>
       </c>
       <c r="F7">
-        <v>12.52</v>
+        <v>4.97</v>
       </c>
       <c r="G7">
-        <v>14.29</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="H7">
-        <v>14.07</v>
+        <v>15.48</v>
       </c>
       <c r="I7">
-        <v>13.09</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="J7">
-        <v>10.57</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="K7">
-        <v>5.52</v>
+        <v>11.94</v>
       </c>
       <c r="L7">
-        <v>56.75</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1629,37 +1629,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.85</v>
+        <v>6.84</v>
       </c>
       <c r="C8">
-        <v>3.48</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="D8">
-        <v>5.93</v>
+        <v>10.84</v>
       </c>
       <c r="E8">
-        <v>8.219999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>4.5</v>
       </c>
       <c r="G8">
-        <v>13.33</v>
+        <v>12.01</v>
       </c>
       <c r="H8">
-        <v>14.73</v>
+        <v>15.79</v>
       </c>
       <c r="I8">
-        <v>15.89</v>
+        <v>8.51</v>
       </c>
       <c r="J8">
-        <v>14.84</v>
+        <v>12.05</v>
       </c>
       <c r="K8">
-        <v>10.63</v>
+        <v>13.42</v>
       </c>
       <c r="L8">
-        <v>43.91</v>
+        <v>50.23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1667,37 +1667,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.98</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="C9">
-        <v>2.43</v>
+        <v>6.23</v>
       </c>
       <c r="D9">
-        <v>4.06</v>
+        <v>9.81</v>
       </c>
       <c r="E9">
-        <v>6.239999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="F9">
-        <v>9.25</v>
+        <v>5.99</v>
       </c>
       <c r="G9">
-        <v>12.79</v>
+        <v>15.59</v>
       </c>
       <c r="H9">
-        <v>14.76</v>
+        <v>12.49</v>
       </c>
       <c r="I9">
-        <v>17.46</v>
+        <v>8.66</v>
       </c>
       <c r="J9">
-        <v>18.21</v>
+        <v>14.54</v>
       </c>
       <c r="K9">
-        <v>13.82</v>
+        <v>14.2</v>
       </c>
       <c r="L9">
-        <v>35.75</v>
+        <v>50.11000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1705,37 +1705,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.74</v>
+        <v>4.79</v>
       </c>
       <c r="C10">
-        <v>1.36</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
-        <v>3.22</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E10">
-        <v>5.36</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="F10">
-        <v>8.540000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="G10">
-        <v>11.4</v>
+        <v>17.02</v>
       </c>
       <c r="H10">
-        <v>15.87</v>
+        <v>9.59</v>
       </c>
       <c r="I10">
-        <v>17.59</v>
+        <v>11.39</v>
       </c>
       <c r="J10">
-        <v>19.61</v>
+        <v>14.68</v>
       </c>
       <c r="K10">
-        <v>16.31</v>
+        <v>13.01</v>
       </c>
       <c r="L10">
-        <v>30.62</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1743,37 +1743,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>1.06</v>
       </c>
       <c r="C11">
-        <v>0.08</v>
+        <v>2.28</v>
       </c>
       <c r="D11">
-        <v>0.32</v>
+        <v>3.36</v>
       </c>
       <c r="E11">
-        <v>0.79</v>
+        <v>3.08</v>
       </c>
       <c r="F11">
-        <v>1.89</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="G11">
-        <v>3.89</v>
+        <v>10.71</v>
       </c>
       <c r="H11">
-        <v>7.21</v>
+        <v>8.82</v>
       </c>
       <c r="I11">
-        <v>13.42</v>
+        <v>17.46</v>
       </c>
       <c r="J11">
-        <v>23.58</v>
+        <v>21.26</v>
       </c>
       <c r="K11">
-        <v>48.8</v>
+        <v>23.32</v>
       </c>
       <c r="L11">
-        <v>6.99</v>
+        <v>29.14</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,28 +52,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,51 +151,48 @@
     <t>Harman Brar</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
+    <t>Sahir Sachdev</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Sahir Sachdev</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -642,22 +645,22 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -666,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -677,31 +680,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -712,28 +715,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
@@ -747,28 +750,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -779,34 +782,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -814,34 +817,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -849,31 +852,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -884,34 +887,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -919,34 +922,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -957,28 +960,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -999,13 +1002,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1016,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1027,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1044,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1055,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1072,10 +1075,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1083,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1097,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1111,13 +1114,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1125,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1142,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1163,16 +1166,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1180,16 +1183,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D2">
-        <v>-0.09999999999999964</v>
+        <v>-2.3</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1197,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D3">
-        <v>-2.3</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1214,16 +1217,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D4">
-        <v>-0.2999999999999998</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1231,16 +1234,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1251,13 +1254,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1268,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1285,13 +1288,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D8">
-        <v>-1.4</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1302,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1319,13 +1322,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>-0.7000000000000002</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1342,7 +1345,7 @@
         <v>2.7</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1360,192 +1363,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>19.85</v>
+        <v>16.91</v>
       </c>
       <c r="C2">
-        <v>15.42</v>
+        <v>14.05</v>
       </c>
       <c r="D2">
-        <v>8.66</v>
+        <v>19.02</v>
       </c>
       <c r="E2">
-        <v>15.02</v>
+        <v>15.38</v>
       </c>
       <c r="F2">
-        <v>12.46</v>
+        <v>4.32</v>
       </c>
       <c r="G2">
-        <v>3.97</v>
+        <v>8.77</v>
       </c>
       <c r="H2">
-        <v>7.26</v>
+        <v>11.3</v>
       </c>
       <c r="I2">
-        <v>8.99</v>
+        <v>4.07</v>
       </c>
       <c r="J2">
-        <v>4.54</v>
+        <v>3.35</v>
       </c>
       <c r="K2">
-        <v>3.83</v>
+        <v>2.83</v>
       </c>
       <c r="L2">
-        <v>75.38</v>
+        <v>78.45</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>15.9</v>
+        <v>15.56</v>
       </c>
       <c r="C3">
-        <v>16.88</v>
+        <v>13.67</v>
       </c>
       <c r="D3">
-        <v>10.12</v>
+        <v>18.7</v>
       </c>
       <c r="E3">
-        <v>11.98</v>
+        <v>9.06</v>
       </c>
       <c r="F3">
-        <v>15.3</v>
+        <v>4.3</v>
       </c>
       <c r="G3">
-        <v>6.05</v>
+        <v>13.75</v>
       </c>
       <c r="H3">
-        <v>6.260000000000001</v>
+        <v>11.61</v>
       </c>
       <c r="I3">
-        <v>8.459999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="J3">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="K3">
-        <v>3.84</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="L3">
-        <v>76.22999999999999</v>
+        <v>75.03999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>15.21</v>
+        <v>14.22</v>
       </c>
       <c r="C4">
-        <v>17.13</v>
+        <v>14.97</v>
       </c>
       <c r="D4">
-        <v>13.61</v>
+        <v>11.16</v>
       </c>
       <c r="E4">
-        <v>10.02</v>
+        <v>3.5</v>
       </c>
       <c r="F4">
-        <v>15.74</v>
+        <v>13.06</v>
       </c>
       <c r="G4">
-        <v>8.51</v>
+        <v>16.79</v>
       </c>
       <c r="H4">
-        <v>4.850000000000001</v>
+        <v>5.28</v>
       </c>
       <c r="I4">
-        <v>7.35</v>
+        <v>4.71</v>
       </c>
       <c r="J4">
-        <v>4.62</v>
+        <v>8.81</v>
       </c>
       <c r="K4">
-        <v>2.96</v>
+        <v>7.5</v>
       </c>
       <c r="L4">
-        <v>80.22000000000001</v>
+        <v>73.69999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>11.87</v>
+        <v>13.26</v>
       </c>
       <c r="C5">
-        <v>8.649999999999999</v>
+        <v>13.52</v>
       </c>
       <c r="D5">
-        <v>9.09</v>
+        <v>14.43</v>
       </c>
       <c r="E5">
-        <v>15.76</v>
+        <v>4.82</v>
       </c>
       <c r="F5">
-        <v>7.91</v>
+        <v>7.56</v>
       </c>
       <c r="G5">
-        <v>5.09</v>
+        <v>18.42</v>
       </c>
       <c r="H5">
-        <v>13.41</v>
+        <v>9.31</v>
       </c>
       <c r="I5">
-        <v>10.6</v>
+        <v>4.03</v>
       </c>
       <c r="J5">
-        <v>8.19</v>
+        <v>7.93</v>
       </c>
       <c r="K5">
-        <v>9.43</v>
+        <v>6.72</v>
       </c>
       <c r="L5">
-        <v>58.37</v>
+        <v>72.01000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1553,37 +1556,37 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>9.969999999999999</v>
+        <v>10.62</v>
       </c>
       <c r="C6">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>14.37</v>
+        <v>13.88</v>
       </c>
       <c r="E6">
-        <v>9.109999999999999</v>
+        <v>19.16</v>
       </c>
       <c r="F6">
-        <v>15.06</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="G6">
-        <v>12.83</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="H6">
-        <v>6.05</v>
+        <v>13.55</v>
       </c>
       <c r="I6">
-        <v>8.630000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="J6">
-        <v>6.03</v>
+        <v>4.49</v>
       </c>
       <c r="K6">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="L6">
-        <v>75.24000000000001</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1591,37 +1594,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>9.120000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="C7">
-        <v>6.59</v>
+        <v>11.26</v>
       </c>
       <c r="D7">
-        <v>11.53</v>
+        <v>5.83</v>
       </c>
       <c r="E7">
-        <v>13.32</v>
+        <v>5.66</v>
       </c>
       <c r="F7">
-        <v>4.97</v>
+        <v>17.84</v>
       </c>
       <c r="G7">
-        <v>8.219999999999999</v>
+        <v>12.84</v>
       </c>
       <c r="H7">
-        <v>15.48</v>
+        <v>3.19</v>
       </c>
       <c r="I7">
-        <v>9.950000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="J7">
-        <v>8.880000000000001</v>
+        <v>13.44</v>
       </c>
       <c r="K7">
-        <v>11.94</v>
+        <v>10.95</v>
       </c>
       <c r="L7">
-        <v>53.75</v>
+        <v>62.74</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1629,113 +1632,113 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>6.84</v>
+        <v>7.33</v>
       </c>
       <c r="C8">
-        <v>6.819999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="D8">
-        <v>10.84</v>
+        <v>3.46</v>
       </c>
       <c r="E8">
-        <v>9.220000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="F8">
-        <v>4.5</v>
+        <v>16.92</v>
       </c>
       <c r="G8">
-        <v>12.01</v>
+        <v>7.03</v>
       </c>
       <c r="H8">
-        <v>15.79</v>
+        <v>4.74</v>
       </c>
       <c r="I8">
-        <v>8.51</v>
+        <v>14.75</v>
       </c>
       <c r="J8">
-        <v>12.05</v>
+        <v>13.97</v>
       </c>
       <c r="K8">
-        <v>13.42</v>
+        <v>14.08</v>
       </c>
       <c r="L8">
-        <v>50.23</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>5.390000000000001</v>
+        <v>6.39</v>
       </c>
       <c r="C9">
-        <v>6.23</v>
+        <v>5.92</v>
       </c>
       <c r="D9">
-        <v>9.81</v>
+        <v>4.43</v>
       </c>
       <c r="E9">
-        <v>7.1</v>
+        <v>11.73</v>
       </c>
       <c r="F9">
-        <v>5.99</v>
+        <v>13.79</v>
       </c>
       <c r="G9">
-        <v>15.59</v>
+        <v>4.14</v>
       </c>
       <c r="H9">
-        <v>12.49</v>
+        <v>8.41</v>
       </c>
       <c r="I9">
-        <v>8.66</v>
+        <v>17.59</v>
       </c>
       <c r="J9">
-        <v>14.54</v>
+        <v>13.31</v>
       </c>
       <c r="K9">
-        <v>14.2</v>
+        <v>14.29</v>
       </c>
       <c r="L9">
-        <v>50.11000000000001</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4.79</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C10">
-        <v>6.1</v>
+        <v>4.91</v>
       </c>
       <c r="D10">
-        <v>8.609999999999999</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E10">
-        <v>5.390000000000001</v>
+        <v>14.56</v>
       </c>
       <c r="F10">
-        <v>9.42</v>
+        <v>10.37</v>
       </c>
       <c r="G10">
-        <v>17.02</v>
+        <v>4.22</v>
       </c>
       <c r="H10">
-        <v>9.59</v>
+        <v>13.85</v>
       </c>
       <c r="I10">
-        <v>11.39</v>
+        <v>17.74</v>
       </c>
       <c r="J10">
-        <v>14.68</v>
+        <v>10.51</v>
       </c>
       <c r="K10">
-        <v>13.01</v>
+        <v>12.72</v>
       </c>
       <c r="L10">
-        <v>51.33</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1743,37 +1746,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="C11">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="D11">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="E11">
-        <v>3.08</v>
+        <v>6.74</v>
       </c>
       <c r="F11">
-        <v>8.649999999999999</v>
+        <v>4.21</v>
       </c>
       <c r="G11">
-        <v>10.71</v>
+        <v>6.08</v>
       </c>
       <c r="H11">
-        <v>8.82</v>
+        <v>18.76</v>
       </c>
       <c r="I11">
-        <v>17.46</v>
+        <v>16.98</v>
       </c>
       <c r="J11">
-        <v>21.26</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>23.32</v>
+        <v>22.49</v>
       </c>
       <c r="L11">
-        <v>29.14</v>
+        <v>22.77</v>
       </c>
     </row>
   </sheetData>
@@ -1791,19 +1794,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1814,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -1823,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1834,16 +1837,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1854,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1874,13 +1877,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -1891,16 +1894,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -1911,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
@@ -1934,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1951,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1971,16 +1974,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1994,13 +1997,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -2013,13 +2016,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2048,10 +2051,13 @@
         <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,11 +2088,14 @@
       <c r="J2">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2117,11 +2126,14 @@
       <c r="J3">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2152,11 +2164,14 @@
       <c r="J4">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2187,81 +2202,90 @@
       <c r="J5">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-6</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-7</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-4</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2292,81 +2316,90 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-13</v>
+      </c>
+      <c r="E9">
+        <v>-17</v>
+      </c>
+      <c r="F9">
+        <v>-19</v>
+      </c>
+      <c r="G9">
+        <v>-28</v>
+      </c>
+      <c r="H9">
+        <v>-28</v>
+      </c>
+      <c r="I9">
+        <v>-30</v>
+      </c>
+      <c r="J9">
+        <v>-23</v>
+      </c>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-2</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-8</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-12</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>-18</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>-18</v>
       </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-8</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-17</v>
-      </c>
-      <c r="F10">
-        <v>-19</v>
-      </c>
-      <c r="G10">
-        <v>-28</v>
-      </c>
-      <c r="H10">
-        <v>-28</v>
-      </c>
-      <c r="I10">
-        <v>-30</v>
-      </c>
-      <c r="J10">
+      <c r="K10">
         <v>-23</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2397,7 +2430,10 @@
       <c r="J11">
         <v>-32</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>-35</v>
+      </c>
+      <c r="L11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2408,7 +2444,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2416,25 +2452,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2546,25 +2582,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2572,25 +2608,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2598,25 +2634,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2624,25 +2660,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-28</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2650,25 +2686,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2679,22 +2715,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>-19</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2702,25 +2738,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2728,51 +2764,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,31 +52,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,12 +148,12 @@
     <t>Krishna Padodara</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Harman Brar</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
@@ -169,28 +169,28 @@
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -645,31 +648,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -680,19 +683,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -701,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -712,34 +715,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -750,28 +753,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -782,34 +785,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -817,34 +820,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -852,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -864,22 +867,22 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -887,25 +890,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -914,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -922,16 +925,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -940,16 +943,16 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -960,28 +963,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -1019,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1033,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1047,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1075,10 +1078,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1086,13 +1089,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1100,13 +1103,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1114,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1128,13 +1131,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1145,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1183,16 +1186,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D2">
-        <v>-2.3</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1200,16 +1203,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>6.7</v>
-      </c>
-      <c r="D3">
-        <v>-0.2999999999999998</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1217,16 +1220,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>-2.3</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1237,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1254,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D6">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1271,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>0.5999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1288,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="D8">
         <v>-0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1305,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D9">
-        <v>-0.1000000000000001</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1322,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D10">
-        <v>-0.6000000000000001</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1339,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D11">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1401,78 +1404,78 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>16.91</v>
+        <v>16.01</v>
       </c>
       <c r="C2">
-        <v>14.05</v>
+        <v>11.91</v>
       </c>
       <c r="D2">
-        <v>19.02</v>
+        <v>6.15</v>
       </c>
       <c r="E2">
-        <v>15.38</v>
+        <v>19.88</v>
       </c>
       <c r="F2">
-        <v>4.32</v>
+        <v>17.33</v>
       </c>
       <c r="G2">
-        <v>8.77</v>
+        <v>2.85</v>
       </c>
       <c r="H2">
-        <v>11.3</v>
+        <v>2.89</v>
       </c>
       <c r="I2">
-        <v>4.07</v>
+        <v>10.1</v>
       </c>
       <c r="J2">
-        <v>3.35</v>
+        <v>7.98</v>
       </c>
       <c r="K2">
-        <v>2.83</v>
+        <v>4.9</v>
       </c>
       <c r="L2">
-        <v>78.45</v>
+        <v>74.13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>15.56</v>
+        <v>14.2</v>
       </c>
       <c r="C3">
-        <v>13.67</v>
+        <v>6.49</v>
       </c>
       <c r="D3">
-        <v>18.7</v>
+        <v>16.58</v>
       </c>
       <c r="E3">
-        <v>9.06</v>
+        <v>17.28</v>
       </c>
       <c r="F3">
-        <v>4.3</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="G3">
-        <v>13.75</v>
+        <v>1.74</v>
       </c>
       <c r="H3">
-        <v>11.61</v>
+        <v>10.83</v>
       </c>
       <c r="I3">
-        <v>3.77</v>
+        <v>14.67</v>
       </c>
       <c r="J3">
-        <v>5.19</v>
+        <v>6.43</v>
       </c>
       <c r="K3">
-        <v>4.390000000000001</v>
+        <v>7.39</v>
       </c>
       <c r="L3">
-        <v>75.03999999999999</v>
+        <v>60.68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1480,75 +1483,75 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14.22</v>
+        <v>12.96</v>
       </c>
       <c r="C4">
-        <v>14.97</v>
+        <v>5.92</v>
       </c>
       <c r="D4">
-        <v>11.16</v>
+        <v>10.78</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
+        <v>21.08</v>
       </c>
       <c r="F4">
-        <v>13.06</v>
+        <v>9.48</v>
       </c>
       <c r="G4">
-        <v>16.79</v>
+        <v>1.22</v>
       </c>
       <c r="H4">
-        <v>5.28</v>
+        <v>6.75</v>
       </c>
       <c r="I4">
-        <v>4.71</v>
+        <v>14.74</v>
       </c>
       <c r="J4">
-        <v>8.81</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="L4">
-        <v>73.69999999999999</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>13.26</v>
+        <v>10.82</v>
       </c>
       <c r="C5">
-        <v>13.52</v>
+        <v>20.36</v>
       </c>
       <c r="D5">
-        <v>14.43</v>
+        <v>9.43</v>
       </c>
       <c r="E5">
-        <v>4.82</v>
+        <v>5.98</v>
       </c>
       <c r="F5">
-        <v>7.56</v>
+        <v>20.65</v>
       </c>
       <c r="G5">
-        <v>18.42</v>
+        <v>15.03</v>
       </c>
       <c r="H5">
-        <v>9.31</v>
+        <v>2.53</v>
       </c>
       <c r="I5">
-        <v>4.03</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="J5">
-        <v>7.93</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="K5">
-        <v>6.72</v>
+        <v>3.49</v>
       </c>
       <c r="L5">
-        <v>72.01000000000001</v>
+        <v>82.27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1556,37 +1559,37 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>10.62</v>
+        <v>10.12</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>12.61</v>
       </c>
       <c r="D6">
-        <v>13.88</v>
+        <v>3.96</v>
       </c>
       <c r="E6">
-        <v>19.16</v>
+        <v>12.46</v>
       </c>
       <c r="F6">
-        <v>7.630000000000001</v>
+        <v>22.91</v>
       </c>
       <c r="G6">
-        <v>7.960000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="H6">
-        <v>13.55</v>
+        <v>2.44</v>
       </c>
       <c r="I6">
-        <v>6.68</v>
+        <v>10.08</v>
       </c>
       <c r="J6">
-        <v>4.49</v>
+        <v>10.59</v>
       </c>
       <c r="K6">
-        <v>4.03</v>
+        <v>7.08</v>
       </c>
       <c r="L6">
-        <v>71.25</v>
+        <v>69.81</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1594,37 +1597,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>9.31</v>
+        <v>10.03</v>
       </c>
       <c r="C7">
-        <v>11.26</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="D7">
-        <v>5.83</v>
+        <v>16.81</v>
       </c>
       <c r="E7">
-        <v>5.66</v>
+        <v>10.73</v>
       </c>
       <c r="F7">
-        <v>17.84</v>
+        <v>1.86</v>
       </c>
       <c r="G7">
-        <v>12.84</v>
+        <v>4.27</v>
       </c>
       <c r="H7">
-        <v>3.19</v>
+        <v>16.42</v>
       </c>
       <c r="I7">
-        <v>9.68</v>
+        <v>15.13</v>
       </c>
       <c r="J7">
-        <v>13.44</v>
+        <v>5.01</v>
       </c>
       <c r="K7">
-        <v>10.95</v>
+        <v>11.77</v>
       </c>
       <c r="L7">
-        <v>62.74</v>
+        <v>51.67000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1632,37 +1635,37 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7.33</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C8">
-        <v>8.33</v>
+        <v>9.65</v>
       </c>
       <c r="D8">
-        <v>3.46</v>
+        <v>14.26</v>
       </c>
       <c r="E8">
-        <v>9.390000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="F8">
-        <v>16.92</v>
+        <v>1.17</v>
       </c>
       <c r="G8">
-        <v>7.03</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H8">
-        <v>4.74</v>
+        <v>20.55</v>
       </c>
       <c r="I8">
-        <v>14.75</v>
+        <v>10.21</v>
       </c>
       <c r="J8">
-        <v>13.97</v>
+        <v>5.18</v>
       </c>
       <c r="K8">
-        <v>14.08</v>
+        <v>14.22</v>
       </c>
       <c r="L8">
-        <v>52.46</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1670,37 +1673,37 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>6.39</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="C9">
-        <v>5.92</v>
+        <v>10.8</v>
       </c>
       <c r="D9">
-        <v>4.43</v>
+        <v>11.49</v>
       </c>
       <c r="E9">
-        <v>11.73</v>
+        <v>3.28</v>
       </c>
       <c r="F9">
-        <v>13.79</v>
+        <v>2.94</v>
       </c>
       <c r="G9">
-        <v>4.14</v>
+        <v>16.81</v>
       </c>
       <c r="H9">
-        <v>8.41</v>
+        <v>19.3</v>
       </c>
       <c r="I9">
-        <v>17.59</v>
+        <v>4.84</v>
       </c>
       <c r="J9">
-        <v>13.31</v>
+        <v>7.98</v>
       </c>
       <c r="K9">
-        <v>14.29</v>
+        <v>14.02</v>
       </c>
       <c r="L9">
-        <v>46.4</v>
+        <v>53.86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1708,37 +1711,37 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>5.220000000000001</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="C10">
-        <v>4.91</v>
+        <v>10.71</v>
       </c>
       <c r="D10">
-        <v>5.899999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="E10">
-        <v>14.56</v>
+        <v>1.76</v>
       </c>
       <c r="F10">
-        <v>10.37</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="G10">
-        <v>4.22</v>
+        <v>22.37</v>
       </c>
       <c r="H10">
-        <v>13.85</v>
+        <v>12.6</v>
       </c>
       <c r="I10">
-        <v>17.74</v>
+        <v>3.64</v>
       </c>
       <c r="J10">
-        <v>10.51</v>
+        <v>12.61</v>
       </c>
       <c r="K10">
-        <v>12.72</v>
+        <v>13.47</v>
       </c>
       <c r="L10">
-        <v>45.18</v>
+        <v>57.68000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1746,37 +1749,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="C11">
-        <v>1.37</v>
+        <v>3.58</v>
       </c>
       <c r="D11">
-        <v>3.19</v>
+        <v>2.14</v>
       </c>
       <c r="E11">
-        <v>6.74</v>
+        <v>1.54</v>
       </c>
       <c r="F11">
-        <v>4.21</v>
+        <v>11.78</v>
       </c>
       <c r="G11">
-        <v>6.08</v>
+        <v>18.07</v>
       </c>
       <c r="H11">
-        <v>18.76</v>
+        <v>5.69</v>
       </c>
       <c r="I11">
-        <v>16.98</v>
+        <v>11.74</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>28.83</v>
       </c>
       <c r="K11">
-        <v>22.49</v>
+        <v>15.12</v>
       </c>
       <c r="L11">
-        <v>22.77</v>
+        <v>38.62</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1840,10 +1843,10 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1860,10 +1863,10 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -1874,19 +1877,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1894,19 +1897,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1920,13 +1923,13 @@
         <v>44</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1940,13 +1943,13 @@
         <v>45</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1960,13 +1963,13 @@
         <v>46</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1980,13 +1983,13 @@
         <v>47</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2000,13 +2003,13 @@
         <v>48</v>
       </c>
       <c r="D11">
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2016,13 +2019,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2054,10 +2057,13 @@
         <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,11 +2097,14 @@
       <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,11 +2138,14 @@
       <c r="K3">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2167,87 +2179,96 @@
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>-6</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>-11</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>-7</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>-2</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>-5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>7</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2281,11 +2302,14 @@
       <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2319,11 +2343,14 @@
       <c r="K8">
         <v>-6</v>
       </c>
-      <c r="L8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2357,11 +2384,14 @@
       <c r="K9">
         <v>-18</v>
       </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2395,11 +2425,14 @@
       <c r="K10">
         <v>-23</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2433,8 +2466,11 @@
       <c r="K11">
         <v>-35</v>
       </c>
-      <c r="L11" t="s">
-        <v>56</v>
+      <c r="L11">
+        <v>-36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2452,25 +2488,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2478,22 +2514,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="F2">
-        <v>-28</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -2504,22 +2540,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -2530,25 +2566,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>-23</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
       <c r="G4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2556,25 +2592,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2582,22 +2618,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="F6">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -2608,25 +2644,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2634,25 +2670,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2660,25 +2696,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="F9">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2686,25 +2722,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>-28</v>
       </c>
       <c r="F10">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2712,25 +2748,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2738,25 +2774,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2764,25 +2800,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="F13">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="76">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,31 +52,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -148,49 +151,46 @@
     <t>Krishna Padodara</t>
   </si>
   <si>
+    <t>Harman Brar</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harman Brar</t>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Sahir Sachdev</t>
   </si>
   <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
-    <t>Sahir Sachdev</t>
-  </si>
-  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>0</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -654,25 +657,25 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -686,16 +689,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -721,25 +724,25 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -753,31 +756,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -794,10 +797,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -806,10 +809,10 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -829,22 +832,22 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -855,34 +858,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -893,31 +896,31 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -931,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -943,16 +946,16 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -969,13 +972,13 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1005,13 +1008,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1022,10 +1025,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1036,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1047,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1061,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1078,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1092,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1106,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1117,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1131,13 +1134,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1148,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1169,16 +1172,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1189,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>-0.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1206,13 +1209,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1223,13 +1226,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D4">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1240,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000002</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1257,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>0.4000000000000004</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1271,16 +1274,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1288,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
-        <v>-0.9000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1305,16 +1308,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="D9">
-        <v>-0.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1325,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1348,7 +1351,7 @@
         <v>1.9</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1366,78 +1369,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>16.01</v>
+        <v>16.96</v>
       </c>
       <c r="C2">
-        <v>11.91</v>
+        <v>6.54</v>
       </c>
       <c r="D2">
-        <v>6.15</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E2">
-        <v>19.88</v>
+        <v>6.48</v>
       </c>
       <c r="F2">
-        <v>17.33</v>
+        <v>28.15</v>
       </c>
       <c r="G2">
-        <v>2.85</v>
+        <v>14.36</v>
       </c>
       <c r="H2">
-        <v>2.89</v>
+        <v>0.98</v>
       </c>
       <c r="I2">
-        <v>10.1</v>
+        <v>1.13</v>
       </c>
       <c r="J2">
-        <v>7.98</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="K2">
-        <v>4.9</v>
+        <v>15.32</v>
       </c>
       <c r="L2">
-        <v>74.13</v>
+        <v>73.04000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1445,341 +1448,341 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>14.2</v>
+        <v>16.45</v>
       </c>
       <c r="C3">
-        <v>6.49</v>
+        <v>13.54</v>
       </c>
       <c r="D3">
-        <v>16.58</v>
+        <v>1.76</v>
       </c>
       <c r="E3">
-        <v>17.28</v>
+        <v>1.25</v>
       </c>
       <c r="F3">
-        <v>4.390000000000001</v>
+        <v>16.79</v>
       </c>
       <c r="G3">
-        <v>1.74</v>
+        <v>26.38</v>
       </c>
       <c r="H3">
-        <v>10.83</v>
+        <v>4.94</v>
       </c>
       <c r="I3">
-        <v>14.67</v>
+        <v>0.45</v>
       </c>
       <c r="J3">
-        <v>6.43</v>
+        <v>4.97</v>
       </c>
       <c r="K3">
-        <v>7.39</v>
+        <v>13.47</v>
       </c>
       <c r="L3">
-        <v>60.68</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>12.96</v>
+        <v>14.82</v>
       </c>
       <c r="C4">
-        <v>5.92</v>
+        <v>1.33</v>
       </c>
       <c r="D4">
-        <v>10.78</v>
+        <v>7.61</v>
       </c>
       <c r="E4">
-        <v>21.08</v>
+        <v>25.81</v>
       </c>
       <c r="F4">
-        <v>9.48</v>
+        <v>13.87</v>
       </c>
       <c r="G4">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H4">
-        <v>6.75</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I4">
-        <v>14.74</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="J4">
-        <v>8.529999999999999</v>
+        <v>19.02</v>
       </c>
       <c r="K4">
-        <v>8.540000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="L4">
-        <v>61.44</v>
+        <v>64.61999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10.82</v>
+        <v>13.95</v>
       </c>
       <c r="C5">
-        <v>20.36</v>
+        <v>20.62</v>
       </c>
       <c r="D5">
-        <v>9.43</v>
+        <v>5.94</v>
       </c>
       <c r="E5">
-        <v>5.98</v>
+        <v>0.51</v>
       </c>
       <c r="F5">
-        <v>20.65</v>
+        <v>6.38</v>
       </c>
       <c r="G5">
-        <v>15.03</v>
+        <v>23.43</v>
       </c>
       <c r="H5">
-        <v>2.53</v>
+        <v>15.09</v>
       </c>
       <c r="I5">
-        <v>4.850000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="J5">
-        <v>6.859999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
-        <v>3.49</v>
+        <v>10.83</v>
       </c>
       <c r="L5">
-        <v>82.27</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10.12</v>
+        <v>13.42</v>
       </c>
       <c r="C6">
-        <v>12.61</v>
+        <v>2.87</v>
       </c>
       <c r="D6">
-        <v>3.96</v>
+        <v>1.47</v>
       </c>
       <c r="E6">
-        <v>12.46</v>
+        <v>17.76</v>
       </c>
       <c r="F6">
-        <v>22.91</v>
+        <v>23.83</v>
       </c>
       <c r="G6">
-        <v>7.75</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="H6">
-        <v>2.44</v>
+        <v>0.28</v>
       </c>
       <c r="I6">
-        <v>10.08</v>
+        <v>3.7</v>
       </c>
       <c r="J6">
-        <v>10.59</v>
+        <v>16.85</v>
       </c>
       <c r="K6">
-        <v>7.08</v>
+        <v>14.67</v>
       </c>
       <c r="L6">
-        <v>69.81</v>
+        <v>64.50000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>10.03</v>
+        <v>10.5</v>
       </c>
       <c r="C7">
-        <v>7.969999999999999</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>16.81</v>
+        <v>14.62</v>
       </c>
       <c r="E7">
-        <v>10.73</v>
+        <v>21.26</v>
       </c>
       <c r="F7">
-        <v>1.86</v>
+        <v>5.86</v>
       </c>
       <c r="G7">
-        <v>4.27</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
-        <v>16.42</v>
+        <v>2.57</v>
       </c>
       <c r="I7">
-        <v>15.13</v>
+        <v>15.73</v>
       </c>
       <c r="J7">
-        <v>5.01</v>
+        <v>22.05</v>
       </c>
       <c r="K7">
-        <v>11.77</v>
+        <v>5.23</v>
       </c>
       <c r="L7">
-        <v>51.67000000000001</v>
+        <v>54.41999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>8.859999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="C8">
-        <v>9.65</v>
+        <v>20.57</v>
       </c>
       <c r="D8">
-        <v>14.26</v>
+        <v>11.85</v>
       </c>
       <c r="E8">
-        <v>6.01</v>
+        <v>1.38</v>
       </c>
       <c r="F8">
-        <v>1.17</v>
+        <v>2.12</v>
       </c>
       <c r="G8">
-        <v>9.890000000000001</v>
+        <v>16.92</v>
       </c>
       <c r="H8">
-        <v>20.55</v>
+        <v>21.59</v>
       </c>
       <c r="I8">
-        <v>10.21</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="J8">
-        <v>5.18</v>
+        <v>1.48</v>
       </c>
       <c r="K8">
-        <v>14.22</v>
+        <v>11.44</v>
       </c>
       <c r="L8">
-        <v>49.84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>8.540000000000001</v>
+        <v>3.07</v>
       </c>
       <c r="C9">
-        <v>10.8</v>
+        <v>16.99</v>
       </c>
       <c r="D9">
-        <v>11.49</v>
+        <v>18.17</v>
       </c>
       <c r="E9">
-        <v>3.28</v>
+        <v>3.68</v>
       </c>
       <c r="F9">
-        <v>2.94</v>
+        <v>0.46</v>
       </c>
       <c r="G9">
-        <v>16.81</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="H9">
-        <v>19.3</v>
+        <v>22.58</v>
       </c>
       <c r="I9">
-        <v>4.84</v>
+        <v>12.5</v>
       </c>
       <c r="J9">
-        <v>7.98</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
-        <v>14.02</v>
+        <v>11.97</v>
       </c>
       <c r="L9">
-        <v>53.86</v>
+        <v>51.15000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>6.950000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="C10">
-        <v>10.71</v>
+        <v>2.76</v>
       </c>
       <c r="D10">
-        <v>8.4</v>
+        <v>11.66</v>
       </c>
       <c r="E10">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.68</v>
+      </c>
+      <c r="G10">
+        <v>1.03</v>
+      </c>
+      <c r="H10">
+        <v>14.77</v>
+      </c>
+      <c r="I10">
+        <v>35.9</v>
+      </c>
+      <c r="J10">
+        <v>18.61</v>
+      </c>
+      <c r="K10">
         <v>1.76</v>
       </c>
-      <c r="F10">
-        <v>7.489999999999999</v>
-      </c>
-      <c r="G10">
-        <v>22.37</v>
-      </c>
-      <c r="H10">
-        <v>12.6</v>
-      </c>
-      <c r="I10">
-        <v>3.64</v>
-      </c>
-      <c r="J10">
-        <v>12.61</v>
-      </c>
-      <c r="K10">
-        <v>13.47</v>
-      </c>
       <c r="L10">
-        <v>57.68000000000001</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="C11">
-        <v>3.58</v>
+        <v>12.78</v>
       </c>
       <c r="D11">
-        <v>2.14</v>
+        <v>26.37</v>
       </c>
       <c r="E11">
-        <v>1.54</v>
+        <v>12.65</v>
       </c>
       <c r="F11">
-        <v>11.78</v>
+        <v>0.86</v>
       </c>
       <c r="G11">
-        <v>18.07</v>
+        <v>2.59</v>
       </c>
       <c r="H11">
-        <v>5.69</v>
+        <v>16.63</v>
       </c>
       <c r="I11">
-        <v>11.74</v>
+        <v>16.5</v>
       </c>
       <c r="J11">
-        <v>28.83</v>
+        <v>3.39</v>
       </c>
       <c r="K11">
-        <v>15.12</v>
+        <v>7.17</v>
       </c>
       <c r="L11">
-        <v>38.62</v>
+        <v>56.30999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1797,19 +1800,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1820,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1840,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -1849,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1860,16 +1863,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1877,19 +1880,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1897,19 +1900,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1917,19 +1920,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1937,19 +1940,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1957,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1980,16 +1983,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>-22</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2000,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>-36</v>
+        <v>-42</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2019,13 +2022,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2060,10 +2063,13 @@
         <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,11 +2106,14 @@
       <c r="L2">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2141,11 +2150,14 @@
       <c r="L3">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2182,216 +2194,234 @@
       <c r="L4">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
+        <v>-11</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>-7</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>-5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
       </c>
       <c r="L7">
         <v>-10</v>
       </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-17</v>
+      </c>
+      <c r="F8">
+        <v>-19</v>
+      </c>
+      <c r="G8">
+        <v>-28</v>
+      </c>
+      <c r="H8">
+        <v>-28</v>
+      </c>
+      <c r="I8">
+        <v>-30</v>
+      </c>
+      <c r="J8">
+        <v>-23</v>
+      </c>
+      <c r="K8">
+        <v>-18</v>
+      </c>
+      <c r="L8">
+        <v>-12</v>
+      </c>
+      <c r="M8">
+        <v>-8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>-4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>-6</v>
-      </c>
-      <c r="L8">
+      <c r="L9">
         <v>-10</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9">
+        <v>-18</v>
+      </c>
+      <c r="N9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-8</v>
-      </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>-13</v>
-      </c>
-      <c r="E9">
-        <v>-17</v>
-      </c>
-      <c r="F9">
-        <v>-19</v>
-      </c>
-      <c r="G9">
-        <v>-28</v>
-      </c>
-      <c r="H9">
-        <v>-28</v>
-      </c>
-      <c r="I9">
-        <v>-30</v>
-      </c>
-      <c r="J9">
-        <v>-23</v>
-      </c>
-      <c r="K9">
-        <v>-18</v>
-      </c>
-      <c r="L9">
-        <v>-12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2428,11 +2458,14 @@
       <c r="L10">
         <v>-22</v>
       </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2469,8 +2502,11 @@
       <c r="L11">
         <v>-36</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
+      <c r="M11">
+        <v>-42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2516,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2488,25 +2524,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2592,25 +2628,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>-22</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2618,25 +2654,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2644,22 +2680,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="F7">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -2670,25 +2706,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>-18</v>
       </c>
       <c r="F8">
-        <v>-17</v>
+        <v>-42</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2696,25 +2732,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
       <c r="E9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>-23</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2722,25 +2758,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>-28</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
       <c r="G10">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2748,25 +2784,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11">
         <v>19</v>
       </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2774,25 +2810,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2800,25 +2836,77 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>-8</v>
+        <v>-28</v>
       </c>
       <c r="F13">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>-10</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="80">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,34 +52,37 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,12 +145,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
@@ -160,37 +163,43 @@
     <t>suraj bhalani</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Sahir Sachdev</t>
   </si>
   <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -651,31 +663,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -686,31 +698,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -718,34 +730,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -759,28 +771,28 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -788,34 +800,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -823,34 +835,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -858,31 +870,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -893,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -905,22 +917,22 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -928,31 +940,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
@@ -966,28 +978,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -1008,13 +1020,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1025,10 +1037,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1039,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1050,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1064,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1081,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1092,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1106,13 +1118,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1120,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1134,13 +1146,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1148,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1172,16 +1184,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1189,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1206,13 +1218,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1223,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="D4">
-        <v>-2.4</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1243,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1257,16 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D6">
-        <v>0.9000000000000004</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1274,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>-1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1291,16 +1303,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-0.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1308,16 +1320,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1328,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>-0.9000000000000004</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1345,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1369,268 +1381,268 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>16.96</v>
+        <v>25.77</v>
       </c>
       <c r="C2">
-        <v>6.54</v>
+        <v>3.54</v>
       </c>
       <c r="D2">
-        <v>0.5499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.36</v>
+        <v>13.93</v>
       </c>
       <c r="H2">
-        <v>0.98</v>
+        <v>56.76</v>
       </c>
       <c r="I2">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.529999999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.32</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>73.04000000000001</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>16.45</v>
+        <v>23.04</v>
       </c>
       <c r="C3">
-        <v>13.54</v>
+        <v>10.05</v>
       </c>
       <c r="D3">
-        <v>1.76</v>
+        <v>0.58</v>
       </c>
       <c r="E3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.79</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>26.38</v>
+        <v>2.96</v>
       </c>
       <c r="H3">
-        <v>4.94</v>
+        <v>29.65</v>
       </c>
       <c r="I3">
-        <v>0.45</v>
+        <v>33.72</v>
       </c>
       <c r="J3">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>76.17</v>
+        <v>36.63</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>14.82</v>
+        <v>19.91</v>
       </c>
       <c r="C4">
-        <v>1.33</v>
+        <v>20.61</v>
       </c>
       <c r="D4">
-        <v>7.61</v>
+        <v>3.21</v>
       </c>
       <c r="E4">
-        <v>25.81</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F4">
-        <v>13.87</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.18</v>
+        <v>0.51</v>
       </c>
       <c r="H4">
-        <v>0.5700000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I4">
-        <v>7.649999999999999</v>
+        <v>32.08</v>
       </c>
       <c r="J4">
-        <v>19.02</v>
+        <v>13.81</v>
       </c>
       <c r="K4">
-        <v>8.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>64.61999999999999</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>13.95</v>
+        <v>17.47</v>
       </c>
       <c r="C5">
-        <v>20.62</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.94</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>23.43</v>
+        <v>82.53</v>
       </c>
       <c r="H5">
-        <v>15.09</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>10.83</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>70.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>13.42</v>
+        <v>10.73</v>
       </c>
       <c r="C6">
-        <v>2.87</v>
+        <v>28.68</v>
       </c>
       <c r="D6">
-        <v>1.47</v>
+        <v>10.67</v>
       </c>
       <c r="E6">
-        <v>17.76</v>
+        <v>0.79</v>
       </c>
       <c r="F6">
-        <v>23.83</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>5.149999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="H6">
-        <v>0.28</v>
+        <v>2.93</v>
       </c>
       <c r="I6">
-        <v>3.7</v>
+        <v>19.74</v>
       </c>
       <c r="J6">
-        <v>16.85</v>
+        <v>23.31</v>
       </c>
       <c r="K6">
-        <v>14.67</v>
+        <v>3.08</v>
       </c>
       <c r="L6">
-        <v>64.50000000000001</v>
+        <v>50.94</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>10.5</v>
+        <v>3.08</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>24.91</v>
       </c>
       <c r="D7">
-        <v>14.62</v>
+        <v>23.47</v>
       </c>
       <c r="E7">
-        <v>21.26</v>
+        <v>3.66</v>
       </c>
       <c r="F7">
-        <v>5.86</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>2.57</v>
+        <v>0.75</v>
       </c>
       <c r="I7">
-        <v>15.73</v>
+        <v>9.94</v>
       </c>
       <c r="J7">
-        <v>22.05</v>
+        <v>24.95</v>
       </c>
       <c r="K7">
-        <v>5.23</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="L7">
-        <v>54.41999999999999</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1638,113 +1650,113 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.16</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>20.57</v>
+        <v>12.21</v>
       </c>
       <c r="D8">
-        <v>11.85</v>
+        <v>35.96</v>
       </c>
       <c r="E8">
-        <v>1.38</v>
+        <v>14.76</v>
       </c>
       <c r="F8">
-        <v>2.12</v>
+        <v>1.1</v>
       </c>
       <c r="G8">
-        <v>16.92</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>21.59</v>
+        <v>0.11</v>
       </c>
       <c r="I8">
-        <v>5.489999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="J8">
-        <v>1.48</v>
+        <v>18.65</v>
       </c>
       <c r="K8">
-        <v>11.44</v>
+        <v>13.9</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>64.03</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>16.99</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>18.17</v>
+        <v>26.11</v>
       </c>
       <c r="E9">
-        <v>3.68</v>
+        <v>35.15</v>
       </c>
       <c r="F9">
-        <v>0.46</v>
+        <v>5.64</v>
       </c>
       <c r="G9">
-        <v>8.780000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>22.58</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.5</v>
+        <v>1.21</v>
       </c>
       <c r="J9">
-        <v>1.8</v>
+        <v>12.43</v>
       </c>
       <c r="K9">
-        <v>11.97</v>
+        <v>19.46</v>
       </c>
       <c r="L9">
-        <v>51.15000000000001</v>
+        <v>66.89999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>11.66</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>9.220000000000001</v>
+        <v>45.57</v>
       </c>
       <c r="F10">
-        <v>1.68</v>
+        <v>21.73</v>
       </c>
       <c r="G10">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>14.77</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.61</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="K10">
-        <v>1.76</v>
+        <v>25.85</v>
       </c>
       <c r="L10">
-        <v>28.96</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1752,37 +1764,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>12.78</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>26.37</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.86</v>
+        <v>71.41999999999999</v>
       </c>
       <c r="G11">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>16.63</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>7.17</v>
+        <v>28.58</v>
       </c>
       <c r="L11">
-        <v>56.30999999999999</v>
+        <v>71.41999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1800,19 +1812,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1820,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1840,19 +1852,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1863,16 +1875,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1883,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1892,7 +1904,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1903,16 +1915,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1923,16 +1935,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1940,19 +1952,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1960,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1980,19 +1992,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>-22</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2003,16 +2015,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>-42</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2022,142 +2034,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
       <c r="L2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
         <v>24</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
       </c>
       <c r="K3">
         <v>24</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2197,11 +2218,14 @@
       <c r="M4">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2241,11 +2265,14 @@
       <c r="M5">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2285,11 +2312,14 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2329,143 +2359,155 @@
       <c r="M7">
         <v>-8</v>
       </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>-11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>-8</v>
+      </c>
+      <c r="H8">
+        <v>-12</v>
+      </c>
+      <c r="I8">
+        <v>-18</v>
+      </c>
+      <c r="J8">
+        <v>-18</v>
+      </c>
+      <c r="K8">
+        <v>-23</v>
+      </c>
+      <c r="L8">
+        <v>-22</v>
+      </c>
+      <c r="M8">
+        <v>-22</v>
+      </c>
+      <c r="N8">
+        <v>-16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-8</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-7</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-13</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-17</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-19</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>-28</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-28</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-30</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>-23</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-18</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-12</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>-8</v>
       </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="N9">
+        <v>-17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-6</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-5</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-4</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-10</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>-18</v>
       </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10">
-        <v>-18</v>
-      </c>
-      <c r="J10">
-        <v>-18</v>
-      </c>
-      <c r="K10">
-        <v>-23</v>
-      </c>
-      <c r="L10">
-        <v>-22</v>
-      </c>
-      <c r="M10">
-        <v>-22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2505,8 +2547,11 @@
       <c r="M11">
         <v>-42</v>
       </c>
-      <c r="N11" t="s">
-        <v>56</v>
+      <c r="N11">
+        <v>-42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2561,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,25 +2569,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2550,25 +2595,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2576,22 +2621,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>-12</v>
       </c>
       <c r="F3">
-        <v>-28</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -2602,22 +2647,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -2628,25 +2673,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>-23</v>
       </c>
       <c r="F5">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2654,25 +2699,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>-22</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2680,25 +2725,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2706,25 +2751,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>-18</v>
       </c>
       <c r="F8">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2732,25 +2777,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="F9">
-        <v>-23</v>
+        <v>-42</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2758,25 +2803,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>-23</v>
       </c>
       <c r="G10">
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2784,25 +2829,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2810,25 +2855,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>-17</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2836,25 +2881,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="F13">
-        <v>-13</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2862,51 +2907,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>-28</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>-10</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="80">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,37 +52,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,63 +142,63 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>KASHYAP AShok</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Harman Brar</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>suraj bhalani</t>
   </si>
   <si>
+    <t>Sahir Sachdev</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Sahir Sachdev</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -666,13 +666,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -681,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -707,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -719,10 +719,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -754,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -768,19 +768,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -789,10 +789,10 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -803,31 +803,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -838,31 +838,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -905,34 +905,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -940,34 +940,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -987,7 +987,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -999,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -1020,13 +1020,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1037,10 +1037,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1093,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1107,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1121,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1132,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1146,13 +1146,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1163,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1184,16 +1184,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="D2">
-        <v>-2.6</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.5999999999999996</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>8.4</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>-2.6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5">
-        <v>0.5999999999999996</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1269,16 +1269,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>-0.5999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D9">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1340,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>-0.7000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1357,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1381,40 +1381,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1422,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>25.77</v>
+        <v>23.81</v>
       </c>
       <c r="C2">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>13.93</v>
+        <v>17.02</v>
       </c>
       <c r="H2">
-        <v>56.76</v>
+        <v>55.61000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>43.24</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1460,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.04</v>
+        <v>22.96</v>
       </c>
       <c r="C3">
-        <v>10.05</v>
+        <v>10.92</v>
       </c>
       <c r="D3">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>29.65</v>
+        <v>29.91</v>
       </c>
       <c r="I3">
-        <v>33.72</v>
+        <v>32.65</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1490,121 +1490,121 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.63</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>19.91</v>
+        <v>20.58</v>
       </c>
       <c r="C4">
-        <v>20.61</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.51</v>
+        <v>79.42</v>
       </c>
       <c r="H4">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.81</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>44.31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>17.47</v>
+        <v>20.44</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>23.72</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>82.53</v>
+        <v>0.4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29.15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.21</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>100</v>
+        <v>48.77999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10.73</v>
+        <v>9.69</v>
       </c>
       <c r="C6">
-        <v>28.68</v>
+        <v>27.18</v>
       </c>
       <c r="D6">
-        <v>10.67</v>
+        <v>12.03</v>
       </c>
       <c r="E6">
-        <v>0.79</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0.06</v>
       </c>
       <c r="H6">
-        <v>2.93</v>
+        <v>3.74</v>
       </c>
       <c r="I6">
-        <v>19.74</v>
+        <v>21.55</v>
       </c>
       <c r="J6">
-        <v>23.31</v>
+        <v>22.41</v>
       </c>
       <c r="K6">
-        <v>3.08</v>
+        <v>2.52</v>
       </c>
       <c r="L6">
-        <v>50.94</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1612,37 +1612,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.08</v>
+        <v>2.52</v>
       </c>
       <c r="C7">
-        <v>24.91</v>
+        <v>23.18</v>
       </c>
       <c r="D7">
-        <v>23.47</v>
+        <v>23.24</v>
       </c>
       <c r="E7">
-        <v>3.66</v>
+        <v>4.31</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.75</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="I7">
-        <v>9.94</v>
+        <v>11.46</v>
       </c>
       <c r="J7">
-        <v>24.95</v>
+        <v>25.49</v>
       </c>
       <c r="K7">
-        <v>9.130000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="L7">
-        <v>55.23</v>
+        <v>53.32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1653,39 +1653,39 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.21</v>
+        <v>11.44</v>
       </c>
       <c r="D8">
-        <v>35.96</v>
+        <v>34.75</v>
       </c>
       <c r="E8">
-        <v>14.76</v>
+        <v>14.99</v>
       </c>
       <c r="F8">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.11</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I8">
-        <v>3.31</v>
+        <v>4.22</v>
       </c>
       <c r="J8">
-        <v>18.65</v>
+        <v>19.71</v>
       </c>
       <c r="K8">
-        <v>13.9</v>
+        <v>13.92</v>
       </c>
       <c r="L8">
-        <v>64.03</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>26.11</v>
+        <v>25.36</v>
       </c>
       <c r="E9">
-        <v>35.15</v>
+        <v>32.02999999999999</v>
       </c>
       <c r="F9">
-        <v>5.64</v>
+        <v>4.22</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1709,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="J9">
-        <v>12.43</v>
+        <v>14.99</v>
       </c>
       <c r="K9">
-        <v>19.46</v>
+        <v>22.43</v>
       </c>
       <c r="L9">
-        <v>66.89999999999999</v>
+        <v>61.60999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>45.57</v>
+        <v>47.79</v>
       </c>
       <c r="F10">
-        <v>21.73</v>
+        <v>16.67</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.850000000000001</v>
+        <v>5.19</v>
       </c>
       <c r="K10">
-        <v>25.85</v>
+        <v>30.35</v>
       </c>
       <c r="L10">
-        <v>67.3</v>
+        <v>64.45999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>71.41999999999999</v>
+        <v>78.14</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>28.58</v>
+        <v>21.86</v>
       </c>
       <c r="L11">
-        <v>71.41999999999999</v>
+        <v>78.14</v>
       </c>
     </row>
   </sheetData>
@@ -1812,19 +1812,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1832,19 +1832,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1852,19 +1852,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1875,16 +1875,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1892,19 +1892,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1912,19 +1912,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1932,19 +1932,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>-11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1952,19 +1952,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1975,16 +1975,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1992,19 +1992,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2015,16 +2015,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>-42</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2034,151 +2034,160 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>22</v>
+      </c>
+      <c r="J2">
         <v>24</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
       <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
         <v>28</v>
       </c>
-      <c r="M2">
-        <v>28</v>
-      </c>
-      <c r="N2">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
       <c r="H3">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>24</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2221,199 +2230,214 @@
       <c r="N4">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>-11</v>
-      </c>
-      <c r="D5">
-        <v>-2</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>-5</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
         <v>4</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
       </c>
       <c r="N5">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="D6">
+        <v>-2</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-2</v>
+      </c>
+      <c r="H7">
+        <v>-4</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
         <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>-6</v>
       </c>
       <c r="L7">
         <v>-10</v>
       </c>
       <c r="M7">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="N7">
+        <v>-17</v>
+      </c>
+      <c r="O7">
         <v>-11</v>
       </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
       </c>
       <c r="E8">
         <v>-4</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-6</v>
+      </c>
+      <c r="L8">
+        <v>-10</v>
+      </c>
+      <c r="M8">
         <v>-8</v>
       </c>
-      <c r="G8">
-        <v>-8</v>
-      </c>
-      <c r="H8">
-        <v>-12</v>
-      </c>
-      <c r="I8">
-        <v>-18</v>
-      </c>
-      <c r="J8">
-        <v>-18</v>
-      </c>
-      <c r="K8">
-        <v>-23</v>
-      </c>
-      <c r="L8">
-        <v>-22</v>
-      </c>
-      <c r="M8">
-        <v>-22</v>
-      </c>
       <c r="N8">
-        <v>-16</v>
-      </c>
-      <c r="O8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>-11</v>
+      </c>
+      <c r="O8">
+        <v>-14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2456,58 +2480,64 @@
       <c r="N9">
         <v>-17</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>-14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-12</v>
+      </c>
+      <c r="I10">
+        <v>-18</v>
+      </c>
+      <c r="J10">
+        <v>-18</v>
+      </c>
+      <c r="K10">
+        <v>-23</v>
+      </c>
+      <c r="L10">
+        <v>-22</v>
+      </c>
+      <c r="M10">
+        <v>-22</v>
+      </c>
+      <c r="N10">
+        <v>-16</v>
+      </c>
+      <c r="O10">
+        <v>-16</v>
+      </c>
+      <c r="P10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>-4</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-10</v>
-      </c>
-      <c r="M10">
-        <v>-18</v>
-      </c>
-      <c r="N10">
-        <v>-17</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2550,8 +2580,11 @@
       <c r="N11">
         <v>-42</v>
       </c>
-      <c r="O11" t="s">
-        <v>54</v>
+      <c r="O11">
+        <v>-42</v>
+      </c>
+      <c r="P11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2594,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2876,58 +2909,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>-2</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>-28</v>
-      </c>
-      <c r="F14">
-        <v>-13</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="83">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,34 +52,43 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,63 +151,60 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
     <t>Harman Brar</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Sahir Sachdev</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Sahir Sachdev</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑11</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -239,6 +245,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -663,28 +672,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -698,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -748,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -768,25 +777,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -803,31 +812,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -838,22 +847,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -873,10 +882,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -891,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -905,19 +914,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -926,13 +935,13 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -940,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -949,25 +958,25 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -975,34 +984,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1020,13 +1029,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1037,10 +1046,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1051,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1065,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1076,13 +1085,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1090,13 +1099,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1104,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1118,13 +1127,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1132,10 +1141,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1146,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1163,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1184,16 +1193,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1204,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D2">
-        <v>-0.5999999999999996</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1221,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D3">
         <v>-0.1999999999999993</v>
@@ -1238,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="D4">
-        <v>-2.6</v>
+        <v>-1.9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1255,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D5">
-        <v>0.1999999999999993</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1269,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1286,16 +1295,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1306,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1323,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1340,13 +1349,13 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>-0.5999999999999996</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1357,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D11">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1381,54 +1390,54 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>23.81</v>
+        <v>23.15</v>
       </c>
       <c r="C2">
-        <v>3.56</v>
+        <v>10.52</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1437,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>17.02</v>
+        <v>2.91</v>
       </c>
       <c r="H2">
-        <v>55.61000000000001</v>
+        <v>29.34</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>33.68</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1452,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>44.39</v>
+        <v>36.98</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>22.96</v>
+        <v>23.07</v>
       </c>
       <c r="C3">
-        <v>10.92</v>
+        <v>3.31</v>
       </c>
       <c r="D3">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1475,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>16.79</v>
       </c>
       <c r="H3">
-        <v>29.91</v>
+        <v>56.83000000000001</v>
       </c>
       <c r="I3">
-        <v>32.65</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1490,83 +1499,83 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>37.44</v>
+        <v>43.17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>20.58</v>
+        <v>20.75</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>23.86</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>79.42</v>
+        <v>0.38</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.66</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.63</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.93</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>20.44</v>
+        <v>20.1</v>
       </c>
       <c r="C5">
-        <v>23.72</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H5">
-        <v>9.859999999999999</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>29.15</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12.21</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>48.77999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1574,37 +1583,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>9.69</v>
+        <v>9.81</v>
       </c>
       <c r="C6">
-        <v>27.18</v>
+        <v>27.65</v>
       </c>
       <c r="D6">
-        <v>12.03</v>
+        <v>12.39</v>
       </c>
       <c r="E6">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>3.74</v>
+        <v>3.39</v>
       </c>
       <c r="I6">
-        <v>21.55</v>
+        <v>21.13</v>
       </c>
       <c r="J6">
-        <v>22.41</v>
+        <v>21.73</v>
       </c>
       <c r="K6">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="L6">
-        <v>49.78</v>
+        <v>50.63</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1612,37 +1621,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2.52</v>
+        <v>3.12</v>
       </c>
       <c r="C7">
-        <v>23.18</v>
+        <v>22.85</v>
       </c>
       <c r="D7">
-        <v>23.24</v>
+        <v>23.69</v>
       </c>
       <c r="E7">
-        <v>4.31</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="F7">
-        <v>0.06999999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0.8099999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I7">
-        <v>11.46</v>
+        <v>11.68</v>
       </c>
       <c r="J7">
-        <v>25.49</v>
+        <v>25.09</v>
       </c>
       <c r="K7">
-        <v>8.92</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="L7">
-        <v>53.32</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1653,34 +1662,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.44</v>
+        <v>11.81</v>
       </c>
       <c r="D8">
-        <v>34.75</v>
+        <v>34.48999999999999</v>
       </c>
       <c r="E8">
-        <v>14.99</v>
+        <v>15.23</v>
       </c>
       <c r="F8">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="I8">
-        <v>4.22</v>
+        <v>3.84</v>
       </c>
       <c r="J8">
-        <v>19.71</v>
+        <v>20.14</v>
       </c>
       <c r="K8">
-        <v>13.92</v>
+        <v>13.45</v>
       </c>
       <c r="L8">
-        <v>62.08</v>
+        <v>62.48</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1694,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>25.36</v>
+        <v>25.26</v>
       </c>
       <c r="E9">
-        <v>32.02999999999999</v>
+        <v>31.57</v>
       </c>
       <c r="F9">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1709,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="J9">
-        <v>14.99</v>
+        <v>14.86</v>
       </c>
       <c r="K9">
-        <v>22.43</v>
+        <v>23.06</v>
       </c>
       <c r="L9">
-        <v>61.60999999999999</v>
+        <v>61.04</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1735,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>47.79</v>
+        <v>48.32</v>
       </c>
       <c r="F10">
-        <v>16.67</v>
+        <v>17.53</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1750,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="K10">
-        <v>30.35</v>
+        <v>28.9</v>
       </c>
       <c r="L10">
-        <v>64.45999999999999</v>
+        <v>65.84999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1776,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>78.14</v>
+        <v>77.22</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1791,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.86</v>
+        <v>22.78</v>
       </c>
       <c r="L11">
-        <v>78.14</v>
+        <v>77.22</v>
       </c>
     </row>
   </sheetData>
@@ -1812,19 +1821,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1832,19 +1841,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1852,19 +1861,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1872,19 +1881,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1895,16 +1904,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1915,16 +1924,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1932,19 +1941,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1952,19 +1961,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1972,19 +1981,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1992,19 +2001,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2015,16 +2024,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>-42</v>
+        <v>-50</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2034,210 +2043,222 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>24</v>
       </c>
       <c r="L2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N2">
+        <v>31</v>
+      </c>
+      <c r="O2">
         <v>30</v>
       </c>
-      <c r="O2">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
         <v>25</v>
       </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>24</v>
-      </c>
-      <c r="L3">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>28</v>
-      </c>
       <c r="N3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O3">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>23</v>
+      </c>
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L4">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2283,11 +2304,14 @@
       <c r="O5">
         <v>14</v>
       </c>
-      <c r="P5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,211 +2357,226 @@
       <c r="O6">
         <v>-2</v>
       </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <v>-12</v>
+      </c>
+      <c r="I7">
+        <v>-18</v>
+      </c>
+      <c r="J7">
+        <v>-18</v>
+      </c>
+      <c r="K7">
+        <v>-23</v>
+      </c>
+      <c r="L7">
+        <v>-22</v>
+      </c>
+      <c r="M7">
+        <v>-22</v>
+      </c>
+      <c r="N7">
+        <v>-16</v>
+      </c>
+      <c r="O7">
+        <v>-16</v>
+      </c>
+      <c r="P7">
         <v>-7</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>-2</v>
-      </c>
-      <c r="H7">
-        <v>-4</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-10</v>
-      </c>
-      <c r="M7">
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-17</v>
+      </c>
+      <c r="F8">
+        <v>-19</v>
+      </c>
+      <c r="G8">
+        <v>-28</v>
+      </c>
+      <c r="H8">
+        <v>-28</v>
+      </c>
+      <c r="I8">
+        <v>-30</v>
+      </c>
+      <c r="J8">
+        <v>-23</v>
+      </c>
+      <c r="K8">
         <v>-18</v>
       </c>
-      <c r="N7">
-        <v>-17</v>
-      </c>
-      <c r="O7">
-        <v>-11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>-6</v>
-      </c>
       <c r="L8">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="M8">
         <v>-8</v>
       </c>
       <c r="N8">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="O8">
         <v>-14</v>
       </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-8</v>
+        <v>1</v>
       </c>
       <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
         <v>-7</v>
       </c>
-      <c r="D9">
-        <v>-13</v>
-      </c>
       <c r="E9">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="G9">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-28</v>
+        <v>-4</v>
       </c>
       <c r="I9">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>-23</v>
+        <v>6</v>
       </c>
       <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9">
         <v>-18</v>
-      </c>
-      <c r="L9">
-        <v>-12</v>
-      </c>
-      <c r="M9">
-        <v>-8</v>
       </c>
       <c r="N9">
         <v>-17</v>
       </c>
       <c r="O9">
-        <v>-14</v>
-      </c>
-      <c r="P9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-11</v>
+      </c>
+      <c r="P9">
+        <v>-17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
       </c>
       <c r="E10">
         <v>-4</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-6</v>
+      </c>
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="M10">
         <v>-8</v>
       </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>-12</v>
-      </c>
-      <c r="I10">
-        <v>-18</v>
-      </c>
-      <c r="J10">
-        <v>-18</v>
-      </c>
-      <c r="K10">
-        <v>-23</v>
-      </c>
-      <c r="L10">
-        <v>-22</v>
-      </c>
-      <c r="M10">
-        <v>-22</v>
-      </c>
       <c r="N10">
-        <v>-16</v>
+        <v>-11</v>
       </c>
       <c r="O10">
-        <v>-16</v>
-      </c>
-      <c r="P10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>-14</v>
+      </c>
+      <c r="P10">
+        <v>-20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2622,11 @@
       <c r="O11">
         <v>-42</v>
       </c>
-      <c r="P11" t="s">
-        <v>58</v>
+      <c r="P11">
+        <v>-50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2602,25 +2644,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2758,25 +2800,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>28</v>
+        <v>-20</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2784,25 +2826,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2810,25 +2852,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>-18</v>
       </c>
       <c r="F9">
-        <v>-42</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2836,77 +2878,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="F10">
-        <v>-23</v>
+        <v>-42</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
         <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>-17</v>
-      </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Brown Munde 2023.xlsx
+++ b/Brown Munde 2023.xlsx
@@ -3370,7 +3370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,30 +3401,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -3450,27 +3470,45 @@
       <c r="E2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1640.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">Killler jatt </t>
         </is>
@@ -3496,27 +3534,45 @@
       <c r="E3" t="n">
         <v>31</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1706.28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Still Rollin'</t>
         </is>
@@ -3542,21 +3598,37 @@
       <c r="E4" t="n">
         <v>34</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1632.56</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eks Gonna Give It To Ya!</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>117.22</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-7</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1587.9</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Team Padodara</t>
         </is>
@@ -3582,21 +3654,37 @@
       <c r="E5" t="n">
         <v>34</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1653.76</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>99.22</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>-13</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1478.98</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>NoHalfSends</t>
         </is>
@@ -3622,21 +3710,37 @@
       <c r="E6" t="n">
         <v>-1</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1640.04</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11-3-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>NoHalfSends</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>113.64</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>31</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1653.76</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>NoHalfSends</t>
         </is>
@@ -3662,21 +3766,37 @@
       <c r="E7" t="n">
         <v>38</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1706.28</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Team Padodara</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>148.36</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>38</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1632.56</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Still Rollin'</t>
         </is>
@@ -3702,21 +3822,37 @@
       <c r="E8" t="n">
         <v>29</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1653.76</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Still Rollin'</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>123.88</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>38</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1706.28</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Still Rollin'</t>
         </is>
